--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Hubspot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C3B4A-316B-4DC9-867A-C4BB82C1AA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555C38B-BEA5-44A5-AA14-B4D2CF8D8BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{5887E3BC-C3BE-470E-8B4E-DE3C4E8DDE99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{348691EA-F6BB-4CE1-8F23-AFB6D42D07B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
@@ -218,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +332,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1117,35 +1162,35 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,11 +1907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:CP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,23 +1961,23 @@
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:94" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2361,11 +2406,11 @@
       <c r="A20" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="42"/>
       <c r="G20" s="50"/>
       <c r="H20" s="51"/>
@@ -2381,11 +2426,11 @@
       <c r="A21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="44"/>
       <c r="G21" s="50"/>
       <c r="H21" s="51"/>
@@ -2401,11 +2446,11 @@
       <c r="A22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="44"/>
       <c r="G22" s="50"/>
       <c r="H22" s="51"/>
@@ -2421,11 +2466,11 @@
       <c r="A23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="44"/>
       <c r="G23" s="50"/>
       <c r="H23" s="51"/>
@@ -2439,9 +2484,9 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="44"/>
       <c r="G24" s="50"/>
       <c r="H24" s="51"/>
@@ -2455,9 +2500,9 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="44"/>
       <c r="G25" s="50"/>
       <c r="H25" s="51"/>
@@ -2471,9 +2516,9 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="44"/>
       <c r="G26" s="50"/>
       <c r="H26" s="51"/>
@@ -2487,9 +2532,9 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="44"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51"/>
@@ -2503,9 +2548,9 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="44"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
@@ -2519,9 +2564,9 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="44"/>
       <c r="G29" s="50"/>
       <c r="H29" s="51"/>
@@ -2535,9 +2580,9 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="46"/>
       <c r="G30" s="53"/>
       <c r="H30" s="54"/>
@@ -2558,6 +2603,11 @@
     <protectedRange sqref="O7:Q17" name="Contact Fields_1"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B20:D20"/>
@@ -2567,11 +2617,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="A17:J18 B8:J16 S8:Y8 S12:Y18">
     <cfRule type="expression" dxfId="21" priority="39">
@@ -2662,15 +2707,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M20:M30 M7:M17 I20:I30 I7:I17 Q20:Q30 Q7:Q17" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 M7:M17 Q7:Q17 Q20:Q30 M20:M30 I20:I30" xr:uid="{10697AB6-D0B6-480F-8335-453638E70828}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555C38B-BEA5-44A5-AA14-B4D2CF8D8BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56F12F-67E7-4CC5-A931-EDA3C5D7AF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$17,Tabelle1!$Q$20:$Q$30,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$M$7:$M$17,Tabelle1!$M$20:$M$30,Tabelle1!$I$20:$I$30,Tabelle1!$I$7:$I$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$C$17</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$17,Tabelle1!$P$20:$P$30,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$L$7:$L$17,Tabelle1!$L$20:$L$30,Tabelle1!$H$20:$H$30,Tabelle1!$H$7:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,21 +40,7 @@
     <author>Valentin Schönrock</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{5887E3BC-C3BE-470E-8B4E-DE3C4E8DDE99}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter "x", if the field must be filled</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{348691EA-F6BB-4CE1-8F23-AFB6D42D07B2}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{348691EA-F6BB-4CE1-8F23-AFB6D42D07B2}">
       <text>
         <r>
           <rPr>
@@ -73,12 +59,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>snapADDY</t>
-  </si>
-  <si>
-    <t>mandatory</t>
   </si>
   <si>
     <t>not used</t>
@@ -372,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -444,21 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -500,21 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -589,10 +542,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
@@ -602,64 +568,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -744,17 +669,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
@@ -807,51 +721,40 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
       <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
@@ -861,17 +764,6 @@
       <left style="thin">
         <color rgb="FFFE6C36"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
@@ -1052,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1082,297 +974,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -1461,13 +1153,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
@@ -1539,13 +1231,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
@@ -1908,48 +1600,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:CP31"/>
+  <dimension ref="A1:CO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="14" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:94" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:93" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:94" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:94" ht="62.25" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:93" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1957,157 +1647,150 @@
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="F4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:93" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:93" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:94" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>3</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="47" t="s">
+      <c r="J6" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="47" t="s">
+      <c r="N6" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    </row>
+    <row r="7" spans="1:93" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-    </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+    </row>
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="K8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="J8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="J9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="K9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-    </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="L9" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="K9" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="51" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10"/>
+      <c r="J10" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
-    </row>
-    <row r="10" spans="1:94" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10"/>
-      <c r="K10" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52"/>
+      <c r="L10" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
@@ -2184,534 +1867,450 @@
       <c r="CM10"/>
       <c r="CN10"/>
       <c r="CO10"/>
-      <c r="CP10"/>
-    </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    </row>
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="J11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="J12" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="K11" s="50" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="J13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-    </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="K13" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="J14" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="N15" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="N16" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="N17" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="K12" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="K13" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
-    </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="K14" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
-    </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="O15" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="O16" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="O17" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="40" t="s">
+      <c r="B20" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="37"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="39"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="39"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="44"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="52"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="44"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="44"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="44"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="52"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="44"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="44"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="52"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="44"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="44"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="44"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="52"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="39"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="39"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="39"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="39"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="39"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="39"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="39"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="47"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="41"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:N17 R7:R17" name="Contact Fields"/>
-    <protectedRange sqref="A20:R30" name="Questionnaire"/>
+    <protectedRange sqref="Q7:Q17 A7:M17" name="Contact Fields"/>
+    <protectedRange sqref="C20:Q30 A20:B30" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="O7:Q17" name="Contact Fields_1"/>
+    <protectedRange sqref="N7:P17" name="Contact Fields_1"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:J18 B8:J16 S8:Y8 S12:Y18">
-    <cfRule type="expression" dxfId="21" priority="39">
+  <conditionalFormatting sqref="A17:I18 B8:I16 J8:X18">
+    <cfRule type="expression" dxfId="5" priority="41">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="40">
-      <formula>$D8="x"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:H30 N20:P30 J20:L30">
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>#REF!="x"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:I30">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="2" priority="54">
       <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
-      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A16">
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="1" priority="55">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="56">
       <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:R18 R8:R17">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:Q30">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>$D20="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:N18">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:M30">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D20="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:Q17">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:Y9">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10:Y10">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D10="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11:Y11">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C11="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D11="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H17 L7:L17 P7:P17 P20:P30 L20:L30 H20:H30" xr:uid="{10697AB6-D0B6-480F-8335-453638E70828}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17 M7:M17 Q7:Q17 Q20:Q30 M20:M30 I20:I30" xr:uid="{10697AB6-D0B6-480F-8335-453638E70828}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56F12F-67E7-4CC5-A931-EDA3C5D7AF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607F828-64D2-4A85-8910-CFADB1AF7E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -136,39 +136,6 @@
     <t>Time of creation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter name of master-template here]</t>
-    </r>
-  </si>
-  <si>
     <t>CRM System: Hubspot</t>
   </si>
   <si>
@@ -233,13 +200,16 @@
   </si>
   <si>
     <t>Wert</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +236,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -948,14 +911,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -968,59 +931,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1039,26 +1002,26 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,7 +1566,7 @@
   <dimension ref="A1:CO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,8 +1585,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
+      <c r="A1" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1631,7 +1594,7 @@
     </row>
     <row r="2" spans="1:93" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:93" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1648,23 +1611,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="F4" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="F4" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
+      <c r="J4" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="N4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:93" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1731,13 +1694,13 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
       <c r="J8" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8" s="45"/>
       <c r="O8" s="46"/>
@@ -1754,13 +1717,13 @@
       <c r="G9" s="46"/>
       <c r="H9" s="47"/>
       <c r="J9" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="45"/>
       <c r="O9" s="46"/>
@@ -1781,10 +1744,10 @@
         <v>10</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10"/>
       <c r="N10" s="45"/>
@@ -1882,10 +1845,10 @@
         <v>11</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="45"/>
       <c r="O11" s="46"/>
@@ -1902,13 +1865,13 @@
       <c r="G12" s="46"/>
       <c r="H12" s="47"/>
       <c r="J12" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="45"/>
       <c r="O12" s="46"/>
@@ -1928,10 +1891,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" s="45"/>
       <c r="O13" s="46"/>
@@ -1951,10 +1914,10 @@
         <v>13</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14" s="45"/>
       <c r="O14" s="46"/>
@@ -1977,15 +1940,15 @@
         <v>8</v>
       </c>
       <c r="O15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="47" t="s">
         <v>39</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="27"/>
@@ -1997,18 +1960,18 @@
       <c r="K16" s="46"/>
       <c r="L16" s="47"/>
       <c r="N16" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
@@ -2020,13 +1983,13 @@
       <c r="K17" s="49"/>
       <c r="L17" s="50"/>
       <c r="N17" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P17" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2080,10 +2043,10 @@
       <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="37"/>
       <c r="F20" s="45"/>
       <c r="G20" s="46"/>
@@ -2099,10 +2062,10 @@
       <c r="A21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="39"/>
       <c r="F21" s="45"/>
       <c r="G21" s="46"/>
@@ -2118,10 +2081,10 @@
       <c r="A22" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="39"/>
       <c r="F22" s="45"/>
       <c r="G22" s="46"/>
@@ -2137,10 +2100,10 @@
       <c r="A23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="39"/>
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
@@ -2154,8 +2117,8 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="39"/>
       <c r="F24" s="45"/>
       <c r="G24" s="46"/>
@@ -2169,8 +2132,8 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="39"/>
       <c r="F25" s="45"/>
       <c r="G25" s="46"/>
@@ -2184,8 +2147,8 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="39"/>
       <c r="F26" s="45"/>
       <c r="G26" s="46"/>
@@ -2199,8 +2162,8 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="39"/>
       <c r="F27" s="45"/>
       <c r="G27" s="46"/>
@@ -2214,8 +2177,8 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="39"/>
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
@@ -2229,8 +2192,8 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="39"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
@@ -2244,8 +2207,8 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="41"/>
       <c r="F30" s="48"/>
       <c r="G30" s="49"/>
@@ -2266,6 +2229,11 @@
     <protectedRange sqref="N7:P17" name="Contact Fields_1"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B20:C20"/>
@@ -2275,11 +2243,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="A17:I18 B8:I16 J8:X18">
     <cfRule type="expression" dxfId="5" priority="41">

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607F828-64D2-4A85-8910-CFADB1AF7E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71698C6D-A0CE-4B92-9AB1-73A8106B9E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="14460" windowHeight="15600" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$C$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$17,Tabelle1!$P$20:$P$30,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$L$7:$L$17,Tabelle1!$L$20:$L$30,Tabelle1!$H$20:$H$30,Tabelle1!$H$7:$H$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$C$25</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$25,Tabelle1!$P$28:$P$38,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$L$7:$L$25,Tabelle1!$L$28:$L$38,Tabelle1!$H$28:$H$38,Tabelle1!$H$7:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>snapADDY</t>
   </si>
@@ -203,6 +203,60 @@
   </si>
   <si>
     <t>Grabber Mapping</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobilephone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -318,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -903,11 +957,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF87757"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1002,6 +1100,12 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,7 +1131,271 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1196,13 +1564,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1563,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:CO31"/>
+  <dimension ref="A1:CO39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,23 +1979,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:93" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1684,179 +2052,100 @@
       <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="J8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="47" t="s">
+      <c r="A8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+    </row>
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="J9" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="47" t="s">
+      <c r="J9" s="59"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+    </row>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10"/>
-      <c r="J10" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="47"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="J11" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="47" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
@@ -1865,10 +2154,10 @@
       <c r="G12" s="46"/>
       <c r="H12" s="47"/>
       <c r="J12" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L12" s="47" t="s">
         <v>39</v>
@@ -1878,20 +2167,26 @@
       <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20"/>
+      <c r="A13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="F13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>39</v>
+      </c>
       <c r="J13" s="45" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>39</v>
@@ -1900,157 +2195,269 @@
       <c r="O13" s="46"/>
       <c r="P13" s="47"/>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+    <row r="14" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="F14" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14"/>
       <c r="J14" s="45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>39</v>
       </c>
+      <c r="M14"/>
       <c r="N14" s="45"/>
       <c r="O14" s="46"/>
       <c r="P14" s="47"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
+      <c r="CI14"/>
+      <c r="CJ14"/>
+      <c r="CK14"/>
+      <c r="CL14"/>
+      <c r="CM14"/>
+      <c r="CN14"/>
+      <c r="CO14"/>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="20"/>
+      <c r="A15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="N15" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="47" t="s">
+      <c r="F15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>39</v>
       </c>
+      <c r="J15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="N16" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="47" t="s">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="F16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="N17" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="50" t="s">
+      <c r="J16" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="N18" s="33"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="37"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="F18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="F19" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="F20" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>39</v>
+      </c>
       <c r="J20" s="45"/>
       <c r="K20" s="46"/>
       <c r="L20" s="47"/>
@@ -2059,17 +2466,21 @@
       <c r="P20" s="47"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="39"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="A21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="F21" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>39</v>
+      </c>
       <c r="J21" s="45"/>
       <c r="K21" s="46"/>
       <c r="L21" s="47"/>
@@ -2078,108 +2489,153 @@
       <c r="P21" s="47"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="F22" s="45"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
+      <c r="J22" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>39</v>
+      </c>
       <c r="N22" s="45"/>
       <c r="O22" s="46"/>
       <c r="P22" s="47"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
       <c r="H23" s="47"/>
       <c r="J23" s="45"/>
       <c r="K23" s="46"/>
       <c r="L23" s="47"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
+      <c r="N23" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
       <c r="F24" s="45"/>
       <c r="G24" s="46"/>
       <c r="H24" s="47"/>
       <c r="J24" s="45"/>
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="39"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="39"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="39"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="39"/>
+      <c r="N24" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="N25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="34"/>
+      <c r="N26" s="33"/>
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="37"/>
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
       <c r="H28" s="47"/>
@@ -2191,9 +2647,13 @@
       <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
+      <c r="A29" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="61"/>
       <c r="D29" s="39"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
@@ -2205,74 +2665,301 @@
       <c r="O29" s="46"/>
       <c r="P29" s="47"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="41"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="39"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="39"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="39"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="47"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="39"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="39"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="47"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="39"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="47"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="39"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="39"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="47"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="41"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="Q7:Q17 A7:M17" name="Contact Fields"/>
-    <protectedRange sqref="C20:Q30 A20:B30" name="Questionnaire"/>
+    <protectedRange sqref="Q7 A7:M7 Q12:Q25 A12:M12 A22:M25 A18:E21 M18:M21 A13:F17 H13:M17" name="Contact Fields"/>
+    <protectedRange sqref="A28:Q38" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="N7:P17" name="Contact Fields_1"/>
+    <protectedRange sqref="N7:P7 N12:P25" name="Contact Fields_1"/>
+    <protectedRange sqref="A8:Q11" name="Contact Fields_3"/>
+    <protectedRange sqref="F18:F21 H18:L21" name="Contact Fields_4"/>
+    <protectedRange sqref="G13:G21" name="Contact Fields_5"/>
   </protectedRanges>
   <mergeCells count="14">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I18 B8:I16 J8:X18">
-    <cfRule type="expression" dxfId="5" priority="41">
+  <conditionalFormatting sqref="A25:I26 B12:X12 J22:X26 M18:X21 B22:I24 B18:E21 B13:F17 H13:X17">
+    <cfRule type="expression" dxfId="29" priority="65">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="42">
+    <cfRule type="expression" dxfId="28" priority="66">
+      <formula>$C12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:H38 N28:P38 J28:L38">
+    <cfRule type="expression" dxfId="27" priority="77">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="78">
+      <formula>$C28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A24">
+    <cfRule type="expression" dxfId="25" priority="79">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="80">
+      <formula>$C12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$C11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$C8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:H30 N20:P30 J20:L30">
-    <cfRule type="expression" dxfId="3" priority="53">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$C9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>$C10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I21 J19:L21">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$C19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$C20="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
-    <cfRule type="expression" dxfId="1" priority="55">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>#REF!="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="56">
-      <formula>$C8="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$C21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:L18">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$C18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G21">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H17 L7:L17 P7:P17 P20:P30 L20:L30 H20:H30" xr:uid="{10697AB6-D0B6-480F-8335-453638E70828}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:H38 P28:P38 L28:L38 P7:P25 H7:H25 L7:L25" xr:uid="{10697AB6-D0B6-480F-8335-453638E70828}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C25" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71698C6D-A0CE-4B92-9AB1-73A8106B9E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A69008-E3E6-4701-98B5-EC7310723F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="14460" windowHeight="15600" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="150" yWindow="1035" windowWidth="18630" windowHeight="14340" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$C$25</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$P$7:$P$25,Tabelle1!$P$28:$P$38,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$L$7:$L$25,Tabelle1!$L$28:$L$38,Tabelle1!$H$28:$H$38,Tabelle1!$H$7:$H$25</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$D$25</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$28:$Q$38,Tabelle1!$Q$7:$Q$25,Tabelle1!$M$7:$M$25,Tabelle1!$M$28:$M$38,Tabelle1!$I$28:$I$38,Tabelle1!$I$7:$I$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,21 @@
     <author>Valentin Schönrock</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{348691EA-F6BB-4CE1-8F23-AFB6D42D07B2}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{5E8DD8D7-B493-492D-8390-CE106B14AE5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{4458E1F9-E6B6-4A14-87F5-47F70A8D8E9C}">
       <text>
         <r>
           <rPr>
@@ -59,9 +73,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>snapADDY</t>
+  </si>
+  <si>
+    <t>mandatory</t>
   </si>
   <si>
     <t>not used</t>
@@ -82,6 +99,21 @@
     <t>Field type</t>
   </si>
   <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -100,7 +132,25 @@
     <t>Country</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Website</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>Automatic Fields</t>
@@ -112,7 +162,16 @@
     <t>Username</t>
   </si>
   <si>
+    <t>Position</t>
+  </si>
+  <si>
     <t>ZIP / Postal Code</t>
+  </si>
+  <si>
+    <t>Lead-Source</t>
+  </si>
+  <si>
+    <t>Recordtype</t>
   </si>
   <si>
     <t>Campaign-ID</t>
@@ -136,13 +195,28 @@
     <t>Time of creation</t>
   </si>
   <si>
-    <t>CRM System: Hubspot</t>
+    <t>this is a note</t>
   </si>
   <si>
-    <t>Hubspot: Deal</t>
+    <t>picklist</t>
   </si>
   <si>
-    <t>name</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
   </si>
   <si>
     <t>address</t>
@@ -160,28 +234,40 @@
     <t>country</t>
   </si>
   <si>
-    <t>website</t>
+    <t>Telephone</t>
   </si>
   <si>
-    <t>Pipeline-Phase</t>
+    <t>phone</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>mobilephone</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dealname</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>dealstage</t>
+  </si>
+  <si>
+    <t>Wert</t>
   </si>
   <si>
     <t>amount</t>
   </si>
   <si>
-    <t>dealstage</t>
+    <t>Company Name</t>
   </si>
   <si>
-    <t>dealname</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Company Name</t>
+    <t>name</t>
   </si>
   <si>
     <t>Address</t>
@@ -190,73 +276,22 @@
     <t>Postal Code</t>
   </si>
   <si>
-    <t>Hubspot: Organisation</t>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>CRM System: Hubspot</t>
   </si>
   <si>
     <t>Hubspot: Person</t>
   </si>
   <si>
-    <t>Phase</t>
+    <t>Hubspot: Deal</t>
   </si>
   <si>
-    <t>Wert</t>
-  </si>
-  <si>
-    <t>Grabber Mapping</t>
-  </si>
-  <si>
-    <t>salutation</t>
-  </si>
-  <si>
-    <t>picklist</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>jobtitle</t>
-  </si>
-  <si>
-    <t>Salutation</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Telefon</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>mobilephone</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>fax</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Mobile</t>
+    <t>Hubspot: Organization</t>
   </si>
 </sst>
 </file>
@@ -372,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -444,6 +479,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -476,6 +526,21 @@
         <color rgb="FF9DA600"/>
       </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -559,6 +624,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -602,6 +680,21 @@
         <color rgb="FF9DA600"/>
       </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -686,49 +779,8 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
+      <right/>
       <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -741,7 +793,7 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -756,9 +808,7 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
@@ -772,7 +822,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -785,86 +835,8 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF87757"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF87757"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF87757"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,36 +844,64 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </right>
       <top style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,64 +909,126 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </right>
       <top style="thin">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFF87757"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </left>
       <right style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FF9DA600"/>
       </right>
-      <top/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
       <bottom style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
       </left>
       <right style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,30 +1036,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
+      <bottom style="thick">
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFF87757"/>
+        <color theme="5"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF87757"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
+      <bottom style="thick">
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1035,103 +1086,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="114">
     <dxf>
       <font>
         <b val="0"/>
@@ -1404,7 +1471,821 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -1462,13 +2343,118 @@
         <color rgb="FF9DA600"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFF87757"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1484,13 +2470,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
@@ -1562,13 +2548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
@@ -1931,46 +2917,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:CO39"/>
+  <dimension ref="A1:FA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:P25"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="15" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:157" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="49"/>
+      <c r="CC1" s="49"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="49"/>
+      <c r="CF1" s="49"/>
+      <c r="CG1" s="49"/>
+      <c r="CH1" s="49"/>
+      <c r="CI1" s="49"/>
+      <c r="CJ1" s="49"/>
+      <c r="CK1" s="49"/>
+      <c r="CL1" s="49"/>
+      <c r="CM1" s="49"/>
+      <c r="CN1" s="49"/>
+      <c r="CO1" s="49"/>
+      <c r="CP1" s="49"/>
+      <c r="CQ1" s="49"/>
+      <c r="CR1" s="49"/>
+      <c r="CS1" s="49"/>
+      <c r="CT1" s="49"/>
+      <c r="CU1" s="49"/>
+      <c r="CV1" s="49"/>
+      <c r="CW1" s="49"/>
+      <c r="CX1" s="49"/>
+      <c r="CY1" s="49"/>
+      <c r="CZ1" s="49"/>
+      <c r="DA1" s="49"/>
+      <c r="DB1" s="49"/>
+      <c r="DC1" s="49"/>
+      <c r="DD1" s="49"/>
+      <c r="DE1" s="49"/>
+      <c r="DF1" s="49"/>
+      <c r="DG1" s="49"/>
+      <c r="DH1" s="49"/>
+      <c r="DI1" s="49"/>
+      <c r="DJ1" s="49"/>
+      <c r="DK1" s="49"/>
+      <c r="DL1" s="49"/>
+      <c r="DM1" s="49"/>
+      <c r="DN1" s="49"/>
+      <c r="DO1" s="49"/>
+      <c r="DP1" s="49"/>
+      <c r="DQ1" s="49"/>
+      <c r="DR1" s="49"/>
+      <c r="DS1" s="49"/>
+      <c r="DT1" s="49"/>
+      <c r="DU1" s="49"/>
+      <c r="DV1" s="49"/>
+      <c r="DW1" s="49"/>
+      <c r="DX1" s="49"/>
+      <c r="DY1" s="49"/>
+      <c r="DZ1" s="49"/>
+      <c r="EA1" s="49"/>
+      <c r="EB1" s="49"/>
+      <c r="EC1" s="49"/>
+      <c r="ED1" s="49"/>
+      <c r="EE1" s="49"/>
+      <c r="EF1" s="49"/>
+      <c r="EG1" s="49"/>
+      <c r="EH1" s="49"/>
+      <c r="EI1" s="49"/>
+      <c r="EJ1" s="49"/>
+      <c r="EK1" s="49"/>
+      <c r="EL1" s="49"/>
+      <c r="EM1" s="49"/>
+      <c r="EN1" s="49"/>
+      <c r="EO1" s="49"/>
+      <c r="EP1" s="49"/>
+      <c r="EQ1" s="49"/>
+      <c r="ER1" s="49"/>
+      <c r="ES1" s="49"/>
+      <c r="ET1" s="49"/>
+      <c r="EU1" s="49"/>
+      <c r="EV1" s="49"/>
+      <c r="EW1" s="49"/>
+      <c r="EX1" s="49"/>
+      <c r="EY1" s="49"/>
+      <c r="EZ1" s="49"/>
+      <c r="FA1" s="49"/>
     </row>
-    <row r="2" spans="1:93" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:157" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49"/>
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49"/>
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="49"/>
+      <c r="DE2" s="49"/>
+      <c r="DF2" s="49"/>
+      <c r="DG2" s="49"/>
+      <c r="DH2" s="49"/>
+      <c r="DI2" s="49"/>
+      <c r="DJ2" s="49"/>
+      <c r="DK2" s="49"/>
+      <c r="DL2" s="49"/>
+      <c r="DM2" s="49"/>
+      <c r="DN2" s="49"/>
+      <c r="DO2" s="49"/>
+      <c r="DP2" s="49"/>
+      <c r="DQ2" s="49"/>
+      <c r="DR2" s="49"/>
+      <c r="DS2" s="49"/>
+      <c r="DT2" s="49"/>
+      <c r="DU2" s="49"/>
+      <c r="DV2" s="49"/>
+      <c r="DW2" s="49"/>
+      <c r="DX2" s="49"/>
+      <c r="DY2" s="49"/>
+      <c r="DZ2" s="49"/>
+      <c r="EA2" s="49"/>
+      <c r="EB2" s="49"/>
+      <c r="EC2" s="49"/>
+      <c r="ED2" s="49"/>
+      <c r="EE2" s="49"/>
+      <c r="EF2" s="49"/>
+      <c r="EG2" s="49"/>
+      <c r="EH2" s="49"/>
+      <c r="EI2" s="49"/>
+      <c r="EJ2" s="49"/>
+      <c r="EK2" s="49"/>
+      <c r="EL2" s="49"/>
+      <c r="EM2" s="49"/>
+      <c r="EN2" s="49"/>
+      <c r="EO2" s="49"/>
+      <c r="EP2" s="49"/>
+      <c r="EQ2" s="49"/>
+      <c r="ER2" s="49"/>
+      <c r="ES2" s="49"/>
+      <c r="ET2" s="49"/>
+      <c r="EU2" s="49"/>
+      <c r="EV2" s="49"/>
+      <c r="EW2" s="49"/>
+      <c r="EX2" s="49"/>
+      <c r="EY2" s="49"/>
+      <c r="EZ2" s="49"/>
+      <c r="FA2" s="49"/>
     </row>
-    <row r="3" spans="1:93" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="N3" s="3"/>
+    <row r="3" spans="1:157" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="49"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="49"/>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="49"/>
+      <c r="CG3" s="49"/>
+      <c r="CH3" s="49"/>
+      <c r="CI3" s="49"/>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49"/>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49"/>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="49"/>
+      <c r="CS3" s="49"/>
+      <c r="CT3" s="49"/>
+      <c r="CU3" s="49"/>
+      <c r="CV3" s="49"/>
+      <c r="CW3" s="49"/>
+      <c r="CX3" s="49"/>
+      <c r="CY3" s="49"/>
+      <c r="CZ3" s="49"/>
+      <c r="DA3" s="49"/>
+      <c r="DB3" s="49"/>
+      <c r="DC3" s="49"/>
+      <c r="DD3" s="49"/>
+      <c r="DE3" s="49"/>
+      <c r="DF3" s="49"/>
+      <c r="DG3" s="49"/>
+      <c r="DH3" s="49"/>
+      <c r="DI3" s="49"/>
+      <c r="DJ3" s="49"/>
+      <c r="DK3" s="49"/>
+      <c r="DL3" s="49"/>
+      <c r="DM3" s="49"/>
+      <c r="DN3" s="49"/>
+      <c r="DO3" s="49"/>
+      <c r="DP3" s="49"/>
+      <c r="DQ3" s="49"/>
+      <c r="DR3" s="49"/>
+      <c r="DS3" s="49"/>
+      <c r="DT3" s="49"/>
+      <c r="DU3" s="49"/>
+      <c r="DV3" s="49"/>
+      <c r="DW3" s="49"/>
+      <c r="DX3" s="49"/>
+      <c r="DY3" s="49"/>
+      <c r="DZ3" s="49"/>
+      <c r="EA3" s="49"/>
+      <c r="EB3" s="49"/>
+      <c r="EC3" s="49"/>
+      <c r="ED3" s="49"/>
+      <c r="EE3" s="49"/>
+      <c r="EF3" s="49"/>
+      <c r="EG3" s="49"/>
+      <c r="EH3" s="49"/>
+      <c r="EI3" s="49"/>
+      <c r="EJ3" s="49"/>
+      <c r="EK3" s="49"/>
+      <c r="EL3" s="49"/>
+      <c r="EM3" s="49"/>
+      <c r="EN3" s="49"/>
+      <c r="EO3" s="49"/>
+      <c r="EP3" s="49"/>
+      <c r="EQ3" s="49"/>
+      <c r="ER3" s="49"/>
+      <c r="ES3" s="49"/>
+      <c r="ET3" s="49"/>
+      <c r="EU3" s="49"/>
+      <c r="EV3" s="49"/>
+      <c r="EW3" s="49"/>
+      <c r="EX3" s="49"/>
+      <c r="EY3" s="49"/>
+      <c r="EZ3" s="49"/>
+      <c r="FA3" s="49"/>
     </row>
-    <row r="4" spans="1:93" ht="50.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:157" ht="62.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1978,256 +3382,1655 @@
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="7"/>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="O4" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49"/>
+      <c r="CI4" s="49"/>
+      <c r="CJ4" s="49"/>
+      <c r="CK4" s="49"/>
+      <c r="CL4" s="49"/>
+      <c r="CM4" s="49"/>
+      <c r="CN4" s="49"/>
+      <c r="CO4" s="49"/>
+      <c r="CP4" s="49"/>
+      <c r="CQ4" s="49"/>
+      <c r="CR4" s="49"/>
+      <c r="CS4" s="49"/>
+      <c r="CT4" s="49"/>
+      <c r="CU4" s="49"/>
+      <c r="CV4" s="49"/>
+      <c r="CW4" s="49"/>
+      <c r="CX4" s="49"/>
+      <c r="CY4" s="49"/>
+      <c r="CZ4" s="49"/>
+      <c r="DA4" s="49"/>
+      <c r="DB4" s="49"/>
+      <c r="DC4" s="49"/>
+      <c r="DD4" s="49"/>
+      <c r="DE4" s="49"/>
+      <c r="DF4" s="49"/>
+      <c r="DG4" s="49"/>
+      <c r="DH4" s="49"/>
+      <c r="DI4" s="49"/>
+      <c r="DJ4" s="49"/>
+      <c r="DK4" s="49"/>
+      <c r="DL4" s="49"/>
+      <c r="DM4" s="49"/>
+      <c r="DN4" s="49"/>
+      <c r="DO4" s="49"/>
+      <c r="DP4" s="49"/>
+      <c r="DQ4" s="49"/>
+      <c r="DR4" s="49"/>
+      <c r="DS4" s="49"/>
+      <c r="DT4" s="49"/>
+      <c r="DU4" s="49"/>
+      <c r="DV4" s="49"/>
+      <c r="DW4" s="49"/>
+      <c r="DX4" s="49"/>
+      <c r="DY4" s="49"/>
+      <c r="DZ4" s="49"/>
+      <c r="EA4" s="49"/>
+      <c r="EB4" s="49"/>
+      <c r="EC4" s="49"/>
+      <c r="ED4" s="49"/>
+      <c r="EE4" s="49"/>
+      <c r="EF4" s="49"/>
+      <c r="EG4" s="49"/>
+      <c r="EH4" s="49"/>
+      <c r="EI4" s="49"/>
+      <c r="EJ4" s="49"/>
+      <c r="EK4" s="49"/>
+      <c r="EL4" s="49"/>
+      <c r="EM4" s="49"/>
+      <c r="EN4" s="49"/>
+      <c r="EO4" s="49"/>
+      <c r="EP4" s="49"/>
+      <c r="EQ4" s="49"/>
+      <c r="ER4" s="49"/>
+      <c r="ES4" s="49"/>
+      <c r="ET4" s="49"/>
+      <c r="EU4" s="49"/>
+      <c r="EV4" s="49"/>
+      <c r="EW4" s="49"/>
+      <c r="EX4" s="49"/>
+      <c r="EY4" s="49"/>
+      <c r="EZ4" s="49"/>
+      <c r="FA4" s="49"/>
     </row>
-    <row r="5" spans="1:93" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:93" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
-        <v>2</v>
+    <row r="5" spans="1:157" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49"/>
+      <c r="BT5" s="49"/>
+      <c r="BU5" s="49"/>
+      <c r="BV5" s="49"/>
+      <c r="BW5" s="49"/>
+      <c r="BX5" s="49"/>
+      <c r="BY5" s="49"/>
+      <c r="BZ5" s="49"/>
+      <c r="CA5" s="49"/>
+      <c r="CB5" s="49"/>
+      <c r="CC5" s="49"/>
+      <c r="CD5" s="49"/>
+      <c r="CE5" s="49"/>
+      <c r="CF5" s="49"/>
+      <c r="CG5" s="49"/>
+      <c r="CH5" s="49"/>
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="49"/>
+      <c r="CK5" s="49"/>
+      <c r="CL5" s="49"/>
+      <c r="CM5" s="49"/>
+      <c r="CN5" s="49"/>
+      <c r="CO5" s="49"/>
+      <c r="CP5" s="49"/>
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="49"/>
+      <c r="CS5" s="49"/>
+      <c r="CT5" s="49"/>
+      <c r="CU5" s="49"/>
+      <c r="CV5" s="49"/>
+      <c r="CW5" s="49"/>
+      <c r="CX5" s="49"/>
+      <c r="CY5" s="49"/>
+      <c r="CZ5" s="49"/>
+      <c r="DA5" s="49"/>
+      <c r="DB5" s="49"/>
+      <c r="DC5" s="49"/>
+      <c r="DD5" s="49"/>
+      <c r="DE5" s="49"/>
+      <c r="DF5" s="49"/>
+      <c r="DG5" s="49"/>
+      <c r="DH5" s="49"/>
+      <c r="DI5" s="49"/>
+      <c r="DJ5" s="49"/>
+      <c r="DK5" s="49"/>
+      <c r="DL5" s="49"/>
+      <c r="DM5" s="49"/>
+      <c r="DN5" s="49"/>
+      <c r="DO5" s="49"/>
+      <c r="DP5" s="49"/>
+      <c r="DQ5" s="49"/>
+      <c r="DR5" s="49"/>
+      <c r="DS5" s="49"/>
+      <c r="DT5" s="49"/>
+      <c r="DU5" s="49"/>
+      <c r="DV5" s="49"/>
+      <c r="DW5" s="49"/>
+      <c r="DX5" s="49"/>
+      <c r="DY5" s="49"/>
+      <c r="DZ5" s="49"/>
+      <c r="EA5" s="49"/>
+      <c r="EB5" s="49"/>
+      <c r="EC5" s="49"/>
+      <c r="ED5" s="49"/>
+      <c r="EE5" s="49"/>
+      <c r="EF5" s="49"/>
+      <c r="EG5" s="49"/>
+      <c r="EH5" s="49"/>
+      <c r="EI5" s="49"/>
+      <c r="EJ5" s="49"/>
+      <c r="EK5" s="49"/>
+      <c r="EL5" s="49"/>
+      <c r="EM5" s="49"/>
+      <c r="EN5" s="49"/>
+      <c r="EO5" s="49"/>
+      <c r="EP5" s="49"/>
+      <c r="EQ5" s="49"/>
+      <c r="ER5" s="49"/>
+      <c r="ES5" s="49"/>
+      <c r="ET5" s="49"/>
+      <c r="EU5" s="49"/>
+      <c r="EV5" s="49"/>
+      <c r="EW5" s="49"/>
+      <c r="EX5" s="49"/>
+      <c r="EY5" s="49"/>
+      <c r="EZ5" s="49"/>
+      <c r="FA5" s="49"/>
+    </row>
+    <row r="6" spans="1:157" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="42" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="43" t="s">
+      <c r="I6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="43" t="s">
+      <c r="M6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="52" t="s">
         <v>6</v>
       </c>
+      <c r="Q6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="49"/>
+      <c r="CA6" s="49"/>
+      <c r="CB6" s="49"/>
+      <c r="CC6" s="49"/>
+      <c r="CD6" s="49"/>
+      <c r="CE6" s="49"/>
+      <c r="CF6" s="49"/>
+      <c r="CG6" s="49"/>
+      <c r="CH6" s="49"/>
+      <c r="CI6" s="49"/>
+      <c r="CJ6" s="49"/>
+      <c r="CK6" s="49"/>
+      <c r="CL6" s="49"/>
+      <c r="CM6" s="49"/>
+      <c r="CN6" s="49"/>
+      <c r="CO6" s="49"/>
+      <c r="CP6" s="49"/>
+      <c r="CQ6" s="49"/>
+      <c r="CR6" s="49"/>
+      <c r="CS6" s="49"/>
+      <c r="CT6" s="49"/>
+      <c r="CU6" s="49"/>
+      <c r="CV6" s="49"/>
+      <c r="CW6" s="49"/>
+      <c r="CX6" s="49"/>
+      <c r="CY6" s="49"/>
+      <c r="CZ6" s="49"/>
+      <c r="DA6" s="49"/>
+      <c r="DB6" s="49"/>
+      <c r="DC6" s="49"/>
+      <c r="DD6" s="49"/>
+      <c r="DE6" s="49"/>
+      <c r="DF6" s="49"/>
+      <c r="DG6" s="49"/>
+      <c r="DH6" s="49"/>
+      <c r="DI6" s="49"/>
+      <c r="DJ6" s="49"/>
+      <c r="DK6" s="49"/>
+      <c r="DL6" s="49"/>
+      <c r="DM6" s="49"/>
+      <c r="DN6" s="49"/>
+      <c r="DO6" s="49"/>
+      <c r="DP6" s="49"/>
+      <c r="DQ6" s="49"/>
+      <c r="DR6" s="49"/>
+      <c r="DS6" s="49"/>
+      <c r="DT6" s="49"/>
+      <c r="DU6" s="49"/>
+      <c r="DV6" s="49"/>
+      <c r="DW6" s="49"/>
+      <c r="DX6" s="49"/>
+      <c r="DY6" s="49"/>
+      <c r="DZ6" s="49"/>
+      <c r="EA6" s="49"/>
+      <c r="EB6" s="49"/>
+      <c r="EC6" s="49"/>
+      <c r="ED6" s="49"/>
+      <c r="EE6" s="49"/>
+      <c r="EF6" s="49"/>
+      <c r="EG6" s="49"/>
+      <c r="EH6" s="49"/>
+      <c r="EI6" s="49"/>
+      <c r="EJ6" s="49"/>
+      <c r="EK6" s="49"/>
+      <c r="EL6" s="49"/>
+      <c r="EM6" s="49"/>
+      <c r="EN6" s="49"/>
+      <c r="EO6" s="49"/>
+      <c r="EP6" s="49"/>
+      <c r="EQ6" s="49"/>
+      <c r="ER6" s="49"/>
+      <c r="ES6" s="49"/>
+      <c r="ET6" s="49"/>
+      <c r="EU6" s="49"/>
+      <c r="EV6" s="49"/>
+      <c r="EW6" s="49"/>
+      <c r="EX6" s="49"/>
+      <c r="EY6" s="49"/>
+      <c r="EZ6" s="49"/>
+      <c r="FA6" s="49"/>
     </row>
-    <row r="7" spans="1:93" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:157" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="55"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="55"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="55"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="49"/>
+      <c r="BU7" s="49"/>
+      <c r="BV7" s="49"/>
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="49"/>
+      <c r="CB7" s="49"/>
+      <c r="CC7" s="49"/>
+      <c r="CD7" s="49"/>
+      <c r="CE7" s="49"/>
+      <c r="CF7" s="49"/>
+      <c r="CG7" s="49"/>
+      <c r="CH7" s="49"/>
+      <c r="CI7" s="49"/>
+      <c r="CJ7" s="49"/>
+      <c r="CK7" s="49"/>
+      <c r="CL7" s="49"/>
+      <c r="CM7" s="49"/>
+      <c r="CN7" s="49"/>
+      <c r="CO7" s="49"/>
+      <c r="CP7" s="49"/>
+      <c r="CQ7" s="49"/>
+      <c r="CR7" s="49"/>
+      <c r="CS7" s="49"/>
+      <c r="CT7" s="49"/>
+      <c r="CU7" s="49"/>
+      <c r="CV7" s="49"/>
+      <c r="CW7" s="49"/>
+      <c r="CX7" s="49"/>
+      <c r="CY7" s="49"/>
+      <c r="CZ7" s="49"/>
+      <c r="DA7" s="49"/>
+      <c r="DB7" s="49"/>
+      <c r="DC7" s="49"/>
+      <c r="DD7" s="49"/>
+      <c r="DE7" s="49"/>
+      <c r="DF7" s="49"/>
+      <c r="DG7" s="49"/>
+      <c r="DH7" s="49"/>
+      <c r="DI7" s="49"/>
+      <c r="DJ7" s="49"/>
+      <c r="DK7" s="49"/>
+      <c r="DL7" s="49"/>
+      <c r="DM7" s="49"/>
+      <c r="DN7" s="49"/>
+      <c r="DO7" s="49"/>
+      <c r="DP7" s="49"/>
+      <c r="DQ7" s="49"/>
+      <c r="DR7" s="49"/>
+      <c r="DS7" s="49"/>
+      <c r="DT7" s="49"/>
+      <c r="DU7" s="49"/>
+      <c r="DV7" s="49"/>
+      <c r="DW7" s="49"/>
+      <c r="DX7" s="49"/>
+      <c r="DY7" s="49"/>
+      <c r="DZ7" s="49"/>
+      <c r="EA7" s="49"/>
+      <c r="EB7" s="49"/>
+      <c r="EC7" s="49"/>
+      <c r="ED7" s="49"/>
+      <c r="EE7" s="49"/>
+      <c r="EF7" s="49"/>
+      <c r="EG7" s="49"/>
+      <c r="EH7" s="49"/>
+      <c r="EI7" s="49"/>
+      <c r="EJ7" s="49"/>
+      <c r="EK7" s="49"/>
+      <c r="EL7" s="49"/>
+      <c r="EM7" s="49"/>
+      <c r="EN7" s="49"/>
+      <c r="EO7" s="49"/>
+      <c r="EP7" s="49"/>
+      <c r="EQ7" s="49"/>
+      <c r="ER7" s="49"/>
+      <c r="ES7" s="49"/>
+      <c r="ET7" s="49"/>
+      <c r="EU7" s="49"/>
+      <c r="EV7" s="49"/>
+      <c r="EW7" s="49"/>
+      <c r="EX7" s="49"/>
+      <c r="EY7" s="49"/>
+      <c r="EZ7" s="49"/>
+      <c r="FA7" s="49"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="14"/>
-      <c r="F8" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="57" t="s">
+    <row r="8" spans="1:157" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="55"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="55"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="50"/>
+      <c r="BL8" s="50"/>
+      <c r="BM8" s="50"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="50"/>
+      <c r="BT8" s="50"/>
+      <c r="BU8" s="50"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="50"/>
+      <c r="BX8" s="50"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="50"/>
+      <c r="CA8" s="50"/>
+      <c r="CB8" s="50"/>
+      <c r="CC8" s="50"/>
+      <c r="CD8" s="50"/>
+      <c r="CE8" s="50"/>
+      <c r="CF8" s="50"/>
+      <c r="CG8" s="50"/>
+      <c r="CH8" s="50"/>
+      <c r="CI8" s="50"/>
+      <c r="CJ8" s="50"/>
+      <c r="CK8" s="50"/>
+      <c r="CL8" s="50"/>
+      <c r="CM8" s="50"/>
+      <c r="CN8" s="50"/>
+      <c r="CO8" s="50"/>
+      <c r="CP8" s="50"/>
+      <c r="CQ8" s="50"/>
+      <c r="CR8" s="50"/>
+      <c r="CS8" s="50"/>
+      <c r="CT8" s="50"/>
+      <c r="CU8" s="50"/>
+      <c r="CV8" s="50"/>
+      <c r="CW8" s="50"/>
+      <c r="CX8" s="50"/>
+      <c r="CY8" s="50"/>
+      <c r="CZ8" s="50"/>
+      <c r="DA8" s="50"/>
+      <c r="DB8" s="50"/>
+      <c r="DC8" s="50"/>
+      <c r="DD8" s="50"/>
+      <c r="DE8" s="50"/>
+      <c r="DF8" s="50"/>
+      <c r="DG8" s="50"/>
+      <c r="DH8" s="50"/>
+      <c r="DI8" s="50"/>
+      <c r="DJ8" s="50"/>
+      <c r="DK8" s="50"/>
+      <c r="DL8" s="50"/>
+      <c r="DM8" s="50"/>
+      <c r="DN8" s="50"/>
+      <c r="DO8" s="50"/>
+      <c r="DP8" s="50"/>
+      <c r="DQ8" s="50"/>
+      <c r="DR8" s="50"/>
+      <c r="DS8" s="50"/>
+      <c r="DT8" s="50"/>
+      <c r="DU8" s="50"/>
+      <c r="DV8" s="50"/>
+      <c r="DW8" s="50"/>
+      <c r="DX8" s="50"/>
+      <c r="DY8" s="50"/>
+      <c r="DZ8" s="50"/>
+      <c r="EA8" s="50"/>
+      <c r="EB8" s="50"/>
+      <c r="EC8" s="50"/>
+      <c r="ED8" s="50"/>
+      <c r="EE8" s="50"/>
+      <c r="EF8" s="50"/>
+      <c r="EG8" s="50"/>
+      <c r="EH8" s="50"/>
+      <c r="EI8" s="50"/>
+      <c r="EJ8" s="50"/>
+      <c r="EK8" s="50"/>
+      <c r="EL8" s="50"/>
+      <c r="EM8" s="50"/>
+      <c r="EN8" s="50"/>
+      <c r="EO8" s="50"/>
+      <c r="EP8" s="50"/>
+      <c r="EQ8" s="50"/>
+      <c r="ER8" s="50"/>
+      <c r="ES8" s="50"/>
+      <c r="ET8" s="50"/>
+      <c r="EU8" s="50"/>
+      <c r="EV8" s="50"/>
+      <c r="EW8" s="50"/>
+      <c r="EX8" s="50"/>
+      <c r="EY8" s="50"/>
+      <c r="EZ8" s="50"/>
+      <c r="FA8" s="50"/>
+    </row>
+    <row r="9" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="54"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="55"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="55"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
+      <c r="BK9" s="49"/>
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="49"/>
+      <c r="BN9" s="49"/>
+      <c r="BO9" s="49"/>
+      <c r="BP9" s="49"/>
+      <c r="BQ9" s="49"/>
+      <c r="BR9" s="49"/>
+      <c r="BS9" s="49"/>
+      <c r="BT9" s="49"/>
+      <c r="BU9" s="49"/>
+      <c r="BV9" s="49"/>
+      <c r="BW9" s="49"/>
+      <c r="BX9" s="49"/>
+      <c r="BY9" s="49"/>
+      <c r="BZ9" s="49"/>
+      <c r="CA9" s="49"/>
+      <c r="CB9" s="49"/>
+      <c r="CC9" s="49"/>
+      <c r="CD9" s="49"/>
+      <c r="CE9" s="49"/>
+      <c r="CF9" s="49"/>
+      <c r="CG9" s="49"/>
+      <c r="CH9" s="49"/>
+      <c r="CI9" s="49"/>
+      <c r="CJ9" s="49"/>
+      <c r="CK9" s="49"/>
+      <c r="CL9" s="49"/>
+      <c r="CM9" s="49"/>
+      <c r="CN9" s="49"/>
+      <c r="CO9" s="49"/>
+      <c r="CP9" s="49"/>
+      <c r="CQ9" s="49"/>
+      <c r="CR9" s="49"/>
+      <c r="CS9" s="49"/>
+      <c r="CT9" s="49"/>
+      <c r="CU9" s="49"/>
+      <c r="CV9" s="49"/>
+      <c r="CW9" s="49"/>
+      <c r="CX9" s="49"/>
+      <c r="CY9" s="49"/>
+      <c r="CZ9" s="49"/>
+      <c r="DA9" s="49"/>
+      <c r="DB9" s="49"/>
+      <c r="DC9" s="49"/>
+      <c r="DD9" s="49"/>
+      <c r="DE9" s="49"/>
+      <c r="DF9" s="49"/>
+      <c r="DG9" s="49"/>
+      <c r="DH9" s="49"/>
+      <c r="DI9" s="49"/>
+      <c r="DJ9" s="49"/>
+      <c r="DK9" s="49"/>
+      <c r="DL9" s="49"/>
+      <c r="DM9" s="49"/>
+      <c r="DN9" s="49"/>
+      <c r="DO9" s="49"/>
+      <c r="DP9" s="49"/>
+      <c r="DQ9" s="49"/>
+      <c r="DR9" s="49"/>
+      <c r="DS9" s="49"/>
+      <c r="DT9" s="49"/>
+      <c r="DU9" s="49"/>
+      <c r="DV9" s="49"/>
+      <c r="DW9" s="49"/>
+      <c r="DX9" s="49"/>
+      <c r="DY9" s="49"/>
+      <c r="DZ9" s="49"/>
+      <c r="EA9" s="49"/>
+      <c r="EB9" s="49"/>
+      <c r="EC9" s="49"/>
+      <c r="ED9" s="49"/>
+      <c r="EE9" s="49"/>
+      <c r="EF9" s="49"/>
+      <c r="EG9" s="49"/>
+      <c r="EH9" s="49"/>
+      <c r="EI9" s="49"/>
+      <c r="EJ9" s="49"/>
+      <c r="EK9" s="49"/>
+      <c r="EL9" s="49"/>
+      <c r="EM9" s="49"/>
+      <c r="EN9" s="49"/>
+      <c r="EO9" s="49"/>
+      <c r="EP9" s="49"/>
+      <c r="EQ9" s="49"/>
+      <c r="ER9" s="49"/>
+      <c r="ES9" s="49"/>
+      <c r="ET9" s="49"/>
+      <c r="EU9" s="49"/>
+      <c r="EV9" s="49"/>
+      <c r="EW9" s="49"/>
+      <c r="EX9" s="49"/>
+      <c r="EY9" s="49"/>
+      <c r="EZ9" s="49"/>
+      <c r="FA9" s="49"/>
+    </row>
+    <row r="10" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="55"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="55"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="49"/>
+      <c r="BB10" s="49"/>
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="49"/>
+      <c r="BF10" s="49"/>
+      <c r="BG10" s="49"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="49"/>
+      <c r="BJ10" s="49"/>
+      <c r="BK10" s="49"/>
+      <c r="BL10" s="49"/>
+      <c r="BM10" s="49"/>
+      <c r="BN10" s="49"/>
+      <c r="BO10" s="49"/>
+      <c r="BP10" s="49"/>
+      <c r="BQ10" s="49"/>
+      <c r="BR10" s="49"/>
+      <c r="BS10" s="49"/>
+      <c r="BT10" s="49"/>
+      <c r="BU10" s="49"/>
+      <c r="BV10" s="49"/>
+      <c r="BW10" s="49"/>
+      <c r="BX10" s="49"/>
+      <c r="BY10" s="49"/>
+      <c r="BZ10" s="49"/>
+      <c r="CA10" s="49"/>
+      <c r="CB10" s="49"/>
+      <c r="CC10" s="49"/>
+      <c r="CD10" s="49"/>
+      <c r="CE10" s="49"/>
+      <c r="CF10" s="49"/>
+      <c r="CG10" s="49"/>
+      <c r="CH10" s="49"/>
+      <c r="CI10" s="49"/>
+      <c r="CJ10" s="49"/>
+      <c r="CK10" s="49"/>
+      <c r="CL10" s="49"/>
+      <c r="CM10" s="49"/>
+      <c r="CN10" s="49"/>
+      <c r="CO10" s="49"/>
+      <c r="CP10" s="49"/>
+      <c r="CQ10" s="49"/>
+      <c r="CR10" s="49"/>
+      <c r="CS10" s="49"/>
+      <c r="CT10" s="49"/>
+      <c r="CU10" s="49"/>
+      <c r="CV10" s="49"/>
+      <c r="CW10" s="49"/>
+      <c r="CX10" s="49"/>
+      <c r="CY10" s="49"/>
+      <c r="CZ10" s="49"/>
+      <c r="DA10" s="49"/>
+      <c r="DB10" s="49"/>
+      <c r="DC10" s="49"/>
+      <c r="DD10" s="49"/>
+      <c r="DE10" s="49"/>
+      <c r="DF10" s="49"/>
+      <c r="DG10" s="49"/>
+      <c r="DH10" s="49"/>
+      <c r="DI10" s="49"/>
+      <c r="DJ10" s="49"/>
+      <c r="DK10" s="49"/>
+      <c r="DL10" s="49"/>
+      <c r="DM10" s="49"/>
+      <c r="DN10" s="49"/>
+      <c r="DO10" s="49"/>
+      <c r="DP10" s="49"/>
+      <c r="DQ10" s="49"/>
+      <c r="DR10" s="49"/>
+      <c r="DS10" s="49"/>
+      <c r="DT10" s="49"/>
+      <c r="DU10" s="49"/>
+      <c r="DV10" s="49"/>
+      <c r="DW10" s="49"/>
+      <c r="DX10" s="49"/>
+      <c r="DY10" s="49"/>
+      <c r="DZ10" s="49"/>
+      <c r="EA10" s="49"/>
+      <c r="EB10" s="49"/>
+      <c r="EC10" s="49"/>
+      <c r="ED10" s="49"/>
+      <c r="EE10" s="49"/>
+      <c r="EF10" s="49"/>
+      <c r="EG10" s="49"/>
+      <c r="EH10" s="49"/>
+      <c r="EI10" s="49"/>
+      <c r="EJ10" s="49"/>
+      <c r="EK10" s="49"/>
+      <c r="EL10" s="49"/>
+      <c r="EM10" s="49"/>
+      <c r="EN10" s="49"/>
+      <c r="EO10" s="49"/>
+      <c r="EP10" s="49"/>
+      <c r="EQ10" s="49"/>
+      <c r="ER10" s="49"/>
+      <c r="ES10" s="49"/>
+      <c r="ET10" s="49"/>
+      <c r="EU10" s="49"/>
+      <c r="EV10" s="49"/>
+      <c r="EW10" s="49"/>
+      <c r="EX10" s="49"/>
+      <c r="EY10" s="49"/>
+      <c r="EZ10" s="49"/>
+      <c r="FA10" s="49"/>
+    </row>
+    <row r="11" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="55"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="55"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="49"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="49"/>
+      <c r="BA11" s="49"/>
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="49"/>
+      <c r="BD11" s="49"/>
+      <c r="BE11" s="49"/>
+      <c r="BF11" s="49"/>
+      <c r="BG11" s="49"/>
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="49"/>
+      <c r="BJ11" s="49"/>
+      <c r="BK11" s="49"/>
+      <c r="BL11" s="49"/>
+      <c r="BM11" s="49"/>
+      <c r="BN11" s="49"/>
+      <c r="BO11" s="49"/>
+      <c r="BP11" s="49"/>
+      <c r="BQ11" s="49"/>
+      <c r="BR11" s="49"/>
+      <c r="BS11" s="49"/>
+      <c r="BT11" s="49"/>
+      <c r="BU11" s="49"/>
+      <c r="BV11" s="49"/>
+      <c r="BW11" s="49"/>
+      <c r="BX11" s="49"/>
+      <c r="BY11" s="49"/>
+      <c r="BZ11" s="49"/>
+      <c r="CA11" s="49"/>
+      <c r="CB11" s="49"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="49"/>
+      <c r="CE11" s="49"/>
+      <c r="CF11" s="49"/>
+      <c r="CG11" s="49"/>
+      <c r="CH11" s="49"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="49"/>
+      <c r="CK11" s="49"/>
+      <c r="CL11" s="49"/>
+      <c r="CM11" s="49"/>
+      <c r="CN11" s="49"/>
+      <c r="CO11" s="49"/>
+      <c r="CP11" s="49"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="49"/>
+      <c r="CS11" s="49"/>
+      <c r="CT11" s="49"/>
+      <c r="CU11" s="49"/>
+      <c r="CV11" s="49"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
+      <c r="CZ11" s="49"/>
+      <c r="DA11" s="49"/>
+      <c r="DB11" s="49"/>
+      <c r="DC11" s="49"/>
+      <c r="DD11" s="49"/>
+      <c r="DE11" s="49"/>
+      <c r="DF11" s="49"/>
+      <c r="DG11" s="49"/>
+      <c r="DH11" s="49"/>
+      <c r="DI11" s="49"/>
+      <c r="DJ11" s="49"/>
+      <c r="DK11" s="49"/>
+      <c r="DL11" s="49"/>
+      <c r="DM11" s="49"/>
+      <c r="DN11" s="49"/>
+      <c r="DO11" s="49"/>
+      <c r="DP11" s="49"/>
+      <c r="DQ11" s="49"/>
+      <c r="DR11" s="49"/>
+      <c r="DS11" s="49"/>
+      <c r="DT11" s="49"/>
+      <c r="DU11" s="49"/>
+      <c r="DV11" s="49"/>
+      <c r="DW11" s="49"/>
+      <c r="DX11" s="49"/>
+      <c r="DY11" s="49"/>
+      <c r="DZ11" s="49"/>
+      <c r="EA11" s="49"/>
+      <c r="EB11" s="49"/>
+      <c r="EC11" s="49"/>
+      <c r="ED11" s="49"/>
+      <c r="EE11" s="49"/>
+      <c r="EF11" s="49"/>
+      <c r="EG11" s="49"/>
+      <c r="EH11" s="49"/>
+      <c r="EI11" s="49"/>
+      <c r="EJ11" s="49"/>
+      <c r="EK11" s="49"/>
+      <c r="EL11" s="49"/>
+      <c r="EM11" s="49"/>
+      <c r="EN11" s="49"/>
+      <c r="EO11" s="49"/>
+      <c r="EP11" s="49"/>
+      <c r="EQ11" s="49"/>
+      <c r="ER11" s="49"/>
+      <c r="ES11" s="49"/>
+      <c r="ET11" s="49"/>
+      <c r="EU11" s="49"/>
+      <c r="EV11" s="49"/>
+      <c r="EW11" s="49"/>
+      <c r="EX11" s="49"/>
+      <c r="EY11" s="49"/>
+      <c r="EZ11" s="49"/>
+      <c r="FA11" s="49"/>
+    </row>
+    <row r="12" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="55"/>
+      <c r="K12" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="54"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="55"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="49"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
+      <c r="BL12" s="49"/>
+      <c r="BM12" s="49"/>
+      <c r="BN12" s="49"/>
+      <c r="BO12" s="49"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="49"/>
+      <c r="BR12" s="49"/>
+      <c r="BS12" s="49"/>
+      <c r="BT12" s="49"/>
+      <c r="BU12" s="49"/>
+      <c r="BV12" s="49"/>
+      <c r="BW12" s="49"/>
+      <c r="BX12" s="49"/>
+      <c r="BY12" s="49"/>
+      <c r="BZ12" s="49"/>
+      <c r="CA12" s="49"/>
+      <c r="CB12" s="49"/>
+      <c r="CC12" s="49"/>
+      <c r="CD12" s="49"/>
+      <c r="CE12" s="49"/>
+      <c r="CF12" s="49"/>
+      <c r="CG12" s="49"/>
+      <c r="CH12" s="49"/>
+      <c r="CI12" s="49"/>
+      <c r="CJ12" s="49"/>
+      <c r="CK12" s="49"/>
+      <c r="CL12" s="49"/>
+      <c r="CM12" s="49"/>
+      <c r="CN12" s="49"/>
+      <c r="CO12" s="49"/>
+      <c r="CP12" s="49"/>
+      <c r="CQ12" s="49"/>
+      <c r="CR12" s="49"/>
+      <c r="CS12" s="49"/>
+      <c r="CT12" s="49"/>
+      <c r="CU12" s="49"/>
+      <c r="CV12" s="49"/>
+      <c r="CW12" s="49"/>
+      <c r="CX12" s="49"/>
+      <c r="CY12" s="49"/>
+      <c r="CZ12" s="49"/>
+      <c r="DA12" s="49"/>
+      <c r="DB12" s="49"/>
+      <c r="DC12" s="49"/>
+      <c r="DD12" s="49"/>
+      <c r="DE12" s="49"/>
+      <c r="DF12" s="49"/>
+      <c r="DG12" s="49"/>
+      <c r="DH12" s="49"/>
+      <c r="DI12" s="49"/>
+      <c r="DJ12" s="49"/>
+      <c r="DK12" s="49"/>
+      <c r="DL12" s="49"/>
+      <c r="DM12" s="49"/>
+      <c r="DN12" s="49"/>
+      <c r="DO12" s="49"/>
+      <c r="DP12" s="49"/>
+      <c r="DQ12" s="49"/>
+      <c r="DR12" s="49"/>
+      <c r="DS12" s="49"/>
+      <c r="DT12" s="49"/>
+      <c r="DU12" s="49"/>
+      <c r="DV12" s="49"/>
+      <c r="DW12" s="49"/>
+      <c r="DX12" s="49"/>
+      <c r="DY12" s="49"/>
+      <c r="DZ12" s="49"/>
+      <c r="EA12" s="49"/>
+      <c r="EB12" s="49"/>
+      <c r="EC12" s="49"/>
+      <c r="ED12" s="49"/>
+      <c r="EE12" s="49"/>
+      <c r="EF12" s="49"/>
+      <c r="EG12" s="49"/>
+      <c r="EH12" s="49"/>
+      <c r="EI12" s="49"/>
+      <c r="EJ12" s="49"/>
+      <c r="EK12" s="49"/>
+      <c r="EL12" s="49"/>
+      <c r="EM12" s="49"/>
+      <c r="EN12" s="49"/>
+      <c r="EO12" s="49"/>
+      <c r="EP12" s="49"/>
+      <c r="EQ12" s="49"/>
+      <c r="ER12" s="49"/>
+      <c r="ES12" s="49"/>
+      <c r="ET12" s="49"/>
+      <c r="EU12" s="49"/>
+      <c r="EV12" s="49"/>
+      <c r="EW12" s="49"/>
+      <c r="EX12" s="49"/>
+      <c r="EY12" s="49"/>
+      <c r="EZ12" s="49"/>
+      <c r="FA12" s="49"/>
+    </row>
+    <row r="13" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="I13" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="55"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="49"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="49"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="49"/>
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="49"/>
+      <c r="BL13" s="49"/>
+      <c r="BM13" s="49"/>
+      <c r="BN13" s="49"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="49"/>
+      <c r="BQ13" s="49"/>
+      <c r="BR13" s="49"/>
+      <c r="BS13" s="49"/>
+      <c r="BT13" s="49"/>
+      <c r="BU13" s="49"/>
+      <c r="BV13" s="49"/>
+      <c r="BW13" s="49"/>
+      <c r="BX13" s="49"/>
+      <c r="BY13" s="49"/>
+      <c r="BZ13" s="49"/>
+      <c r="CA13" s="49"/>
+      <c r="CB13" s="49"/>
+      <c r="CC13" s="49"/>
+      <c r="CD13" s="49"/>
+      <c r="CE13" s="49"/>
+      <c r="CF13" s="49"/>
+      <c r="CG13" s="49"/>
+      <c r="CH13" s="49"/>
+      <c r="CI13" s="49"/>
+      <c r="CJ13" s="49"/>
+      <c r="CK13" s="49"/>
+      <c r="CL13" s="49"/>
+      <c r="CM13" s="49"/>
+      <c r="CN13" s="49"/>
+      <c r="CO13" s="49"/>
+      <c r="CP13" s="49"/>
+      <c r="CQ13" s="49"/>
+      <c r="CR13" s="49"/>
+      <c r="CS13" s="49"/>
+      <c r="CT13" s="49"/>
+      <c r="CU13" s="49"/>
+      <c r="CV13" s="49"/>
+      <c r="CW13" s="49"/>
+      <c r="CX13" s="49"/>
+      <c r="CY13" s="49"/>
+      <c r="CZ13" s="49"/>
+      <c r="DA13" s="49"/>
+      <c r="DB13" s="49"/>
+      <c r="DC13" s="49"/>
+      <c r="DD13" s="49"/>
+      <c r="DE13" s="49"/>
+      <c r="DF13" s="49"/>
+      <c r="DG13" s="49"/>
+      <c r="DH13" s="49"/>
+      <c r="DI13" s="49"/>
+      <c r="DJ13" s="49"/>
+      <c r="DK13" s="49"/>
+      <c r="DL13" s="49"/>
+      <c r="DM13" s="49"/>
+      <c r="DN13" s="49"/>
+      <c r="DO13" s="49"/>
+      <c r="DP13" s="49"/>
+      <c r="DQ13" s="49"/>
+      <c r="DR13" s="49"/>
+      <c r="DS13" s="49"/>
+      <c r="DT13" s="49"/>
+      <c r="DU13" s="49"/>
+      <c r="DV13" s="49"/>
+      <c r="DW13" s="49"/>
+      <c r="DX13" s="49"/>
+      <c r="DY13" s="49"/>
+      <c r="DZ13" s="49"/>
+      <c r="EA13" s="49"/>
+      <c r="EB13" s="49"/>
+      <c r="EC13" s="49"/>
+      <c r="ED13" s="49"/>
+      <c r="EE13" s="49"/>
+      <c r="EF13" s="49"/>
+      <c r="EG13" s="49"/>
+      <c r="EH13" s="49"/>
+      <c r="EI13" s="49"/>
+      <c r="EJ13" s="49"/>
+      <c r="EK13" s="49"/>
+      <c r="EL13" s="49"/>
+      <c r="EM13" s="49"/>
+      <c r="EN13" s="49"/>
+      <c r="EO13" s="49"/>
+      <c r="EP13" s="49"/>
+      <c r="EQ13" s="49"/>
+      <c r="ER13" s="49"/>
+      <c r="ES13" s="49"/>
+      <c r="ET13" s="49"/>
+      <c r="EU13" s="49"/>
+      <c r="EV13" s="49"/>
+      <c r="EW13" s="49"/>
+      <c r="EX13" s="49"/>
+      <c r="EY13" s="49"/>
+      <c r="EZ13" s="49"/>
+      <c r="FA13" s="49"/>
+    </row>
+    <row r="14" spans="1:157" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="G14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
-    </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-    </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="14"/>
-      <c r="F10" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="58"/>
-    </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="14"/>
-      <c r="F11" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-    </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="J12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="47"/>
-    </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="F13" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47"/>
-    </row>
-    <row r="14" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="F14" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
+      <c r="I14" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="55"/>
+      <c r="S14" s="49"/>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
@@ -2259,708 +5062,3045 @@
       <c r="AV14"/>
       <c r="AW14"/>
       <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
-      <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
-      <c r="BE14"/>
-      <c r="BF14"/>
-      <c r="BG14"/>
-      <c r="BH14"/>
-      <c r="BI14"/>
-      <c r="BJ14"/>
-      <c r="BK14"/>
-      <c r="BL14"/>
-      <c r="BM14"/>
-      <c r="BN14"/>
-      <c r="BO14"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
-      <c r="BY14"/>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
-      <c r="CG14"/>
-      <c r="CH14"/>
-      <c r="CI14"/>
-      <c r="CJ14"/>
-      <c r="CK14"/>
-      <c r="CL14"/>
-      <c r="CM14"/>
-      <c r="CN14"/>
-      <c r="CO14"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="50"/>
+      <c r="BD14" s="50"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="50"/>
+      <c r="BH14" s="50"/>
+      <c r="BI14" s="50"/>
+      <c r="BJ14" s="50"/>
+      <c r="BK14" s="50"/>
+      <c r="BL14" s="50"/>
+      <c r="BM14" s="50"/>
+      <c r="BN14" s="50"/>
+      <c r="BO14" s="50"/>
+      <c r="BP14" s="50"/>
+      <c r="BQ14" s="50"/>
+      <c r="BR14" s="50"/>
+      <c r="BS14" s="50"/>
+      <c r="BT14" s="50"/>
+      <c r="BU14" s="50"/>
+      <c r="BV14" s="50"/>
+      <c r="BW14" s="50"/>
+      <c r="BX14" s="50"/>
+      <c r="BY14" s="50"/>
+      <c r="BZ14" s="50"/>
+      <c r="CA14" s="50"/>
+      <c r="CB14" s="50"/>
+      <c r="CC14" s="50"/>
+      <c r="CD14" s="50"/>
+      <c r="CE14" s="50"/>
+      <c r="CF14" s="50"/>
+      <c r="CG14" s="50"/>
+      <c r="CH14" s="50"/>
+      <c r="CI14" s="50"/>
+      <c r="CJ14" s="50"/>
+      <c r="CK14" s="50"/>
+      <c r="CL14" s="50"/>
+      <c r="CM14" s="50"/>
+      <c r="CN14" s="50"/>
+      <c r="CO14" s="50"/>
+      <c r="CP14" s="50"/>
+      <c r="CQ14" s="50"/>
+      <c r="CR14" s="50"/>
+      <c r="CS14" s="50"/>
+      <c r="CT14" s="50"/>
+      <c r="CU14" s="50"/>
+      <c r="CV14" s="50"/>
+      <c r="CW14" s="50"/>
+      <c r="CX14" s="50"/>
+      <c r="CY14" s="50"/>
+      <c r="CZ14" s="50"/>
+      <c r="DA14" s="50"/>
+      <c r="DB14" s="50"/>
+      <c r="DC14" s="50"/>
+      <c r="DD14" s="50"/>
+      <c r="DE14" s="50"/>
+      <c r="DF14" s="50"/>
+      <c r="DG14" s="50"/>
+      <c r="DH14" s="50"/>
+      <c r="DI14" s="50"/>
+      <c r="DJ14" s="50"/>
+      <c r="DK14" s="50"/>
+      <c r="DL14" s="50"/>
+      <c r="DM14" s="50"/>
+      <c r="DN14" s="50"/>
+      <c r="DO14" s="50"/>
+      <c r="DP14" s="50"/>
+      <c r="DQ14" s="50"/>
+      <c r="DR14" s="50"/>
+      <c r="DS14" s="50"/>
+      <c r="DT14" s="50"/>
+      <c r="DU14" s="50"/>
+      <c r="DV14" s="50"/>
+      <c r="DW14" s="50"/>
+      <c r="DX14" s="50"/>
+      <c r="DY14" s="50"/>
+      <c r="DZ14" s="50"/>
+      <c r="EA14" s="50"/>
+      <c r="EB14" s="50"/>
+      <c r="EC14" s="50"/>
+      <c r="ED14" s="50"/>
+      <c r="EE14" s="50"/>
+      <c r="EF14" s="50"/>
+      <c r="EG14" s="50"/>
+      <c r="EH14" s="50"/>
+      <c r="EI14" s="50"/>
+      <c r="EJ14" s="50"/>
+      <c r="EK14" s="50"/>
+      <c r="EL14" s="50"/>
+      <c r="EM14" s="50"/>
+      <c r="EN14" s="50"/>
+      <c r="EO14" s="50"/>
+      <c r="EP14" s="50"/>
+      <c r="EQ14" s="50"/>
+      <c r="ER14" s="50"/>
+      <c r="ES14" s="50"/>
+      <c r="ET14" s="50"/>
+      <c r="EU14" s="50"/>
+      <c r="EV14" s="50"/>
+      <c r="EW14" s="50"/>
+      <c r="EX14" s="50"/>
+      <c r="EY14" s="50"/>
+      <c r="EZ14" s="50"/>
+      <c r="FA14" s="50"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="F15" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="46" t="s">
+    <row r="15" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="54"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="55"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="49"/>
+      <c r="BA15" s="49"/>
+      <c r="BB15" s="49"/>
+      <c r="BC15" s="49"/>
+      <c r="BD15" s="49"/>
+      <c r="BE15" s="49"/>
+      <c r="BF15" s="49"/>
+      <c r="BG15" s="49"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="49"/>
+      <c r="BJ15" s="49"/>
+      <c r="BK15" s="49"/>
+      <c r="BL15" s="49"/>
+      <c r="BM15" s="49"/>
+      <c r="BN15" s="49"/>
+      <c r="BO15" s="49"/>
+      <c r="BP15" s="49"/>
+      <c r="BQ15" s="49"/>
+      <c r="BR15" s="49"/>
+      <c r="BS15" s="49"/>
+      <c r="BT15" s="49"/>
+      <c r="BU15" s="49"/>
+      <c r="BV15" s="49"/>
+      <c r="BW15" s="49"/>
+      <c r="BX15" s="49"/>
+      <c r="BY15" s="49"/>
+      <c r="BZ15" s="49"/>
+      <c r="CA15" s="49"/>
+      <c r="CB15" s="49"/>
+      <c r="CC15" s="49"/>
+      <c r="CD15" s="49"/>
+      <c r="CE15" s="49"/>
+      <c r="CF15" s="49"/>
+      <c r="CG15" s="49"/>
+      <c r="CH15" s="49"/>
+      <c r="CI15" s="49"/>
+      <c r="CJ15" s="49"/>
+      <c r="CK15" s="49"/>
+      <c r="CL15" s="49"/>
+      <c r="CM15" s="49"/>
+      <c r="CN15" s="49"/>
+      <c r="CO15" s="49"/>
+      <c r="CP15" s="49"/>
+      <c r="CQ15" s="49"/>
+      <c r="CR15" s="49"/>
+      <c r="CS15" s="49"/>
+      <c r="CT15" s="49"/>
+      <c r="CU15" s="49"/>
+      <c r="CV15" s="49"/>
+      <c r="CW15" s="49"/>
+      <c r="CX15" s="49"/>
+      <c r="CY15" s="49"/>
+      <c r="CZ15" s="49"/>
+      <c r="DA15" s="49"/>
+      <c r="DB15" s="49"/>
+      <c r="DC15" s="49"/>
+      <c r="DD15" s="49"/>
+      <c r="DE15" s="49"/>
+      <c r="DF15" s="49"/>
+      <c r="DG15" s="49"/>
+      <c r="DH15" s="49"/>
+      <c r="DI15" s="49"/>
+      <c r="DJ15" s="49"/>
+      <c r="DK15" s="49"/>
+      <c r="DL15" s="49"/>
+      <c r="DM15" s="49"/>
+      <c r="DN15" s="49"/>
+      <c r="DO15" s="49"/>
+      <c r="DP15" s="49"/>
+      <c r="DQ15" s="49"/>
+      <c r="DR15" s="49"/>
+      <c r="DS15" s="49"/>
+      <c r="DT15" s="49"/>
+      <c r="DU15" s="49"/>
+      <c r="DV15" s="49"/>
+      <c r="DW15" s="49"/>
+      <c r="DX15" s="49"/>
+      <c r="DY15" s="49"/>
+      <c r="DZ15" s="49"/>
+      <c r="EA15" s="49"/>
+      <c r="EB15" s="49"/>
+      <c r="EC15" s="49"/>
+      <c r="ED15" s="49"/>
+      <c r="EE15" s="49"/>
+      <c r="EF15" s="49"/>
+      <c r="EG15" s="49"/>
+      <c r="EH15" s="49"/>
+      <c r="EI15" s="49"/>
+      <c r="EJ15" s="49"/>
+      <c r="EK15" s="49"/>
+      <c r="EL15" s="49"/>
+      <c r="EM15" s="49"/>
+      <c r="EN15" s="49"/>
+      <c r="EO15" s="49"/>
+      <c r="EP15" s="49"/>
+      <c r="EQ15" s="49"/>
+      <c r="ER15" s="49"/>
+      <c r="ES15" s="49"/>
+      <c r="ET15" s="49"/>
+      <c r="EU15" s="49"/>
+      <c r="EV15" s="49"/>
+      <c r="EW15" s="49"/>
+      <c r="EX15" s="49"/>
+      <c r="EY15" s="49"/>
+      <c r="EZ15" s="49"/>
+      <c r="FA15" s="49"/>
+    </row>
+    <row r="16" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="G16" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="54"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="55"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="49"/>
+      <c r="BA16" s="49"/>
+      <c r="BB16" s="49"/>
+      <c r="BC16" s="49"/>
+      <c r="BD16" s="49"/>
+      <c r="BE16" s="49"/>
+      <c r="BF16" s="49"/>
+      <c r="BG16" s="49"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="49"/>
+      <c r="BJ16" s="49"/>
+      <c r="BK16" s="49"/>
+      <c r="BL16" s="49"/>
+      <c r="BM16" s="49"/>
+      <c r="BN16" s="49"/>
+      <c r="BO16" s="49"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="49"/>
+      <c r="BR16" s="49"/>
+      <c r="BS16" s="49"/>
+      <c r="BT16" s="49"/>
+      <c r="BU16" s="49"/>
+      <c r="BV16" s="49"/>
+      <c r="BW16" s="49"/>
+      <c r="BX16" s="49"/>
+      <c r="BY16" s="49"/>
+      <c r="BZ16" s="49"/>
+      <c r="CA16" s="49"/>
+      <c r="CB16" s="49"/>
+      <c r="CC16" s="49"/>
+      <c r="CD16" s="49"/>
+      <c r="CE16" s="49"/>
+      <c r="CF16" s="49"/>
+      <c r="CG16" s="49"/>
+      <c r="CH16" s="49"/>
+      <c r="CI16" s="49"/>
+      <c r="CJ16" s="49"/>
+      <c r="CK16" s="49"/>
+      <c r="CL16" s="49"/>
+      <c r="CM16" s="49"/>
+      <c r="CN16" s="49"/>
+      <c r="CO16" s="49"/>
+      <c r="CP16" s="49"/>
+      <c r="CQ16" s="49"/>
+      <c r="CR16" s="49"/>
+      <c r="CS16" s="49"/>
+      <c r="CT16" s="49"/>
+      <c r="CU16" s="49"/>
+      <c r="CV16" s="49"/>
+      <c r="CW16" s="49"/>
+      <c r="CX16" s="49"/>
+      <c r="CY16" s="49"/>
+      <c r="CZ16" s="49"/>
+      <c r="DA16" s="49"/>
+      <c r="DB16" s="49"/>
+      <c r="DC16" s="49"/>
+      <c r="DD16" s="49"/>
+      <c r="DE16" s="49"/>
+      <c r="DF16" s="49"/>
+      <c r="DG16" s="49"/>
+      <c r="DH16" s="49"/>
+      <c r="DI16" s="49"/>
+      <c r="DJ16" s="49"/>
+      <c r="DK16" s="49"/>
+      <c r="DL16" s="49"/>
+      <c r="DM16" s="49"/>
+      <c r="DN16" s="49"/>
+      <c r="DO16" s="49"/>
+      <c r="DP16" s="49"/>
+      <c r="DQ16" s="49"/>
+      <c r="DR16" s="49"/>
+      <c r="DS16" s="49"/>
+      <c r="DT16" s="49"/>
+      <c r="DU16" s="49"/>
+      <c r="DV16" s="49"/>
+      <c r="DW16" s="49"/>
+      <c r="DX16" s="49"/>
+      <c r="DY16" s="49"/>
+      <c r="DZ16" s="49"/>
+      <c r="EA16" s="49"/>
+      <c r="EB16" s="49"/>
+      <c r="EC16" s="49"/>
+      <c r="ED16" s="49"/>
+      <c r="EE16" s="49"/>
+      <c r="EF16" s="49"/>
+      <c r="EG16" s="49"/>
+      <c r="EH16" s="49"/>
+      <c r="EI16" s="49"/>
+      <c r="EJ16" s="49"/>
+      <c r="EK16" s="49"/>
+      <c r="EL16" s="49"/>
+      <c r="EM16" s="49"/>
+      <c r="EN16" s="49"/>
+      <c r="EO16" s="49"/>
+      <c r="EP16" s="49"/>
+      <c r="EQ16" s="49"/>
+      <c r="ER16" s="49"/>
+      <c r="ES16" s="49"/>
+      <c r="ET16" s="49"/>
+      <c r="EU16" s="49"/>
+      <c r="EV16" s="49"/>
+      <c r="EW16" s="49"/>
+      <c r="EX16" s="49"/>
+      <c r="EY16" s="49"/>
+      <c r="EZ16" s="49"/>
+      <c r="FA16" s="49"/>
+    </row>
+    <row r="17" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="G17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="54"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="55"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="49"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49"/>
+      <c r="BC17" s="49"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17" s="49"/>
+      <c r="BF17" s="49"/>
+      <c r="BG17" s="49"/>
+      <c r="BH17" s="49"/>
+      <c r="BI17" s="49"/>
+      <c r="BJ17" s="49"/>
+      <c r="BK17" s="49"/>
+      <c r="BL17" s="49"/>
+      <c r="BM17" s="49"/>
+      <c r="BN17" s="49"/>
+      <c r="BO17" s="49"/>
+      <c r="BP17" s="49"/>
+      <c r="BQ17" s="49"/>
+      <c r="BR17" s="49"/>
+      <c r="BS17" s="49"/>
+      <c r="BT17" s="49"/>
+      <c r="BU17" s="49"/>
+      <c r="BV17" s="49"/>
+      <c r="BW17" s="49"/>
+      <c r="BX17" s="49"/>
+      <c r="BY17" s="49"/>
+      <c r="BZ17" s="49"/>
+      <c r="CA17" s="49"/>
+      <c r="CB17" s="49"/>
+      <c r="CC17" s="49"/>
+      <c r="CD17" s="49"/>
+      <c r="CE17" s="49"/>
+      <c r="CF17" s="49"/>
+      <c r="CG17" s="49"/>
+      <c r="CH17" s="49"/>
+      <c r="CI17" s="49"/>
+      <c r="CJ17" s="49"/>
+      <c r="CK17" s="49"/>
+      <c r="CL17" s="49"/>
+      <c r="CM17" s="49"/>
+      <c r="CN17" s="49"/>
+      <c r="CO17" s="49"/>
+      <c r="CP17" s="49"/>
+      <c r="CQ17" s="49"/>
+      <c r="CR17" s="49"/>
+      <c r="CS17" s="49"/>
+      <c r="CT17" s="49"/>
+      <c r="CU17" s="49"/>
+      <c r="CV17" s="49"/>
+      <c r="CW17" s="49"/>
+      <c r="CX17" s="49"/>
+      <c r="CY17" s="49"/>
+      <c r="CZ17" s="49"/>
+      <c r="DA17" s="49"/>
+      <c r="DB17" s="49"/>
+      <c r="DC17" s="49"/>
+      <c r="DD17" s="49"/>
+      <c r="DE17" s="49"/>
+      <c r="DF17" s="49"/>
+      <c r="DG17" s="49"/>
+      <c r="DH17" s="49"/>
+      <c r="DI17" s="49"/>
+      <c r="DJ17" s="49"/>
+      <c r="DK17" s="49"/>
+      <c r="DL17" s="49"/>
+      <c r="DM17" s="49"/>
+      <c r="DN17" s="49"/>
+      <c r="DO17" s="49"/>
+      <c r="DP17" s="49"/>
+      <c r="DQ17" s="49"/>
+      <c r="DR17" s="49"/>
+      <c r="DS17" s="49"/>
+      <c r="DT17" s="49"/>
+      <c r="DU17" s="49"/>
+      <c r="DV17" s="49"/>
+      <c r="DW17" s="49"/>
+      <c r="DX17" s="49"/>
+      <c r="DY17" s="49"/>
+      <c r="DZ17" s="49"/>
+      <c r="EA17" s="49"/>
+      <c r="EB17" s="49"/>
+      <c r="EC17" s="49"/>
+      <c r="ED17" s="49"/>
+      <c r="EE17" s="49"/>
+      <c r="EF17" s="49"/>
+      <c r="EG17" s="49"/>
+      <c r="EH17" s="49"/>
+      <c r="EI17" s="49"/>
+      <c r="EJ17" s="49"/>
+      <c r="EK17" s="49"/>
+      <c r="EL17" s="49"/>
+      <c r="EM17" s="49"/>
+      <c r="EN17" s="49"/>
+      <c r="EO17" s="49"/>
+      <c r="EP17" s="49"/>
+      <c r="EQ17" s="49"/>
+      <c r="ER17" s="49"/>
+      <c r="ES17" s="49"/>
+      <c r="ET17" s="49"/>
+      <c r="EU17" s="49"/>
+      <c r="EV17" s="49"/>
+      <c r="EW17" s="49"/>
+      <c r="EX17" s="49"/>
+      <c r="EY17" s="49"/>
+      <c r="EZ17" s="49"/>
+      <c r="FA17" s="49"/>
+    </row>
+    <row r="18" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="G18" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="54"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="55"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="49"/>
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="49"/>
+      <c r="BC18" s="49"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18" s="49"/>
+      <c r="BF18" s="49"/>
+      <c r="BG18" s="49"/>
+      <c r="BH18" s="49"/>
+      <c r="BI18" s="49"/>
+      <c r="BJ18" s="49"/>
+      <c r="BK18" s="49"/>
+      <c r="BL18" s="49"/>
+      <c r="BM18" s="49"/>
+      <c r="BN18" s="49"/>
+      <c r="BO18" s="49"/>
+      <c r="BP18" s="49"/>
+      <c r="BQ18" s="49"/>
+      <c r="BR18" s="49"/>
+      <c r="BS18" s="49"/>
+      <c r="BT18" s="49"/>
+      <c r="BU18" s="49"/>
+      <c r="BV18" s="49"/>
+      <c r="BW18" s="49"/>
+      <c r="BX18" s="49"/>
+      <c r="BY18" s="49"/>
+      <c r="BZ18" s="49"/>
+      <c r="CA18" s="49"/>
+      <c r="CB18" s="49"/>
+      <c r="CC18" s="49"/>
+      <c r="CD18" s="49"/>
+      <c r="CE18" s="49"/>
+      <c r="CF18" s="49"/>
+      <c r="CG18" s="49"/>
+      <c r="CH18" s="49"/>
+      <c r="CI18" s="49"/>
+      <c r="CJ18" s="49"/>
+      <c r="CK18" s="49"/>
+      <c r="CL18" s="49"/>
+      <c r="CM18" s="49"/>
+      <c r="CN18" s="49"/>
+      <c r="CO18" s="49"/>
+      <c r="CP18" s="49"/>
+      <c r="CQ18" s="49"/>
+      <c r="CR18" s="49"/>
+      <c r="CS18" s="49"/>
+      <c r="CT18" s="49"/>
+      <c r="CU18" s="49"/>
+      <c r="CV18" s="49"/>
+      <c r="CW18" s="49"/>
+      <c r="CX18" s="49"/>
+      <c r="CY18" s="49"/>
+      <c r="CZ18" s="49"/>
+      <c r="DA18" s="49"/>
+      <c r="DB18" s="49"/>
+      <c r="DC18" s="49"/>
+      <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
+      <c r="DF18" s="49"/>
+      <c r="DG18" s="49"/>
+      <c r="DH18" s="49"/>
+      <c r="DI18" s="49"/>
+      <c r="DJ18" s="49"/>
+      <c r="DK18" s="49"/>
+      <c r="DL18" s="49"/>
+      <c r="DM18" s="49"/>
+      <c r="DN18" s="49"/>
+      <c r="DO18" s="49"/>
+      <c r="DP18" s="49"/>
+      <c r="DQ18" s="49"/>
+      <c r="DR18" s="49"/>
+      <c r="DS18" s="49"/>
+      <c r="DT18" s="49"/>
+      <c r="DU18" s="49"/>
+      <c r="DV18" s="49"/>
+      <c r="DW18" s="49"/>
+      <c r="DX18" s="49"/>
+      <c r="DY18" s="49"/>
+      <c r="DZ18" s="49"/>
+      <c r="EA18" s="49"/>
+      <c r="EB18" s="49"/>
+      <c r="EC18" s="49"/>
+      <c r="ED18" s="49"/>
+      <c r="EE18" s="49"/>
+      <c r="EF18" s="49"/>
+      <c r="EG18" s="49"/>
+      <c r="EH18" s="49"/>
+      <c r="EI18" s="49"/>
+      <c r="EJ18" s="49"/>
+      <c r="EK18" s="49"/>
+      <c r="EL18" s="49"/>
+      <c r="EM18" s="49"/>
+      <c r="EN18" s="49"/>
+      <c r="EO18" s="49"/>
+      <c r="EP18" s="49"/>
+      <c r="EQ18" s="49"/>
+      <c r="ER18" s="49"/>
+      <c r="ES18" s="49"/>
+      <c r="ET18" s="49"/>
+      <c r="EU18" s="49"/>
+      <c r="EV18" s="49"/>
+      <c r="EW18" s="49"/>
+      <c r="EX18" s="49"/>
+      <c r="EY18" s="49"/>
+      <c r="EZ18" s="49"/>
+      <c r="FA18" s="49"/>
+    </row>
+    <row r="19" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="G19" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="54"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="55"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="55"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="49"/>
+      <c r="BA19" s="49"/>
+      <c r="BB19" s="49"/>
+      <c r="BC19" s="49"/>
+      <c r="BD19" s="49"/>
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="49"/>
+      <c r="BG19" s="49"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="49"/>
+      <c r="BJ19" s="49"/>
+      <c r="BK19" s="49"/>
+      <c r="BL19" s="49"/>
+      <c r="BM19" s="49"/>
+      <c r="BN19" s="49"/>
+      <c r="BO19" s="49"/>
+      <c r="BP19" s="49"/>
+      <c r="BQ19" s="49"/>
+      <c r="BR19" s="49"/>
+      <c r="BS19" s="49"/>
+      <c r="BT19" s="49"/>
+      <c r="BU19" s="49"/>
+      <c r="BV19" s="49"/>
+      <c r="BW19" s="49"/>
+      <c r="BX19" s="49"/>
+      <c r="BY19" s="49"/>
+      <c r="BZ19" s="49"/>
+      <c r="CA19" s="49"/>
+      <c r="CB19" s="49"/>
+      <c r="CC19" s="49"/>
+      <c r="CD19" s="49"/>
+      <c r="CE19" s="49"/>
+      <c r="CF19" s="49"/>
+      <c r="CG19" s="49"/>
+      <c r="CH19" s="49"/>
+      <c r="CI19" s="49"/>
+      <c r="CJ19" s="49"/>
+      <c r="CK19" s="49"/>
+      <c r="CL19" s="49"/>
+      <c r="CM19" s="49"/>
+      <c r="CN19" s="49"/>
+      <c r="CO19" s="49"/>
+      <c r="CP19" s="49"/>
+      <c r="CQ19" s="49"/>
+      <c r="CR19" s="49"/>
+      <c r="CS19" s="49"/>
+      <c r="CT19" s="49"/>
+      <c r="CU19" s="49"/>
+      <c r="CV19" s="49"/>
+      <c r="CW19" s="49"/>
+      <c r="CX19" s="49"/>
+      <c r="CY19" s="49"/>
+      <c r="CZ19" s="49"/>
+      <c r="DA19" s="49"/>
+      <c r="DB19" s="49"/>
+      <c r="DC19" s="49"/>
+      <c r="DD19" s="49"/>
+      <c r="DE19" s="49"/>
+      <c r="DF19" s="49"/>
+      <c r="DG19" s="49"/>
+      <c r="DH19" s="49"/>
+      <c r="DI19" s="49"/>
+      <c r="DJ19" s="49"/>
+      <c r="DK19" s="49"/>
+      <c r="DL19" s="49"/>
+      <c r="DM19" s="49"/>
+      <c r="DN19" s="49"/>
+      <c r="DO19" s="49"/>
+      <c r="DP19" s="49"/>
+      <c r="DQ19" s="49"/>
+      <c r="DR19" s="49"/>
+      <c r="DS19" s="49"/>
+      <c r="DT19" s="49"/>
+      <c r="DU19" s="49"/>
+      <c r="DV19" s="49"/>
+      <c r="DW19" s="49"/>
+      <c r="DX19" s="49"/>
+      <c r="DY19" s="49"/>
+      <c r="DZ19" s="49"/>
+      <c r="EA19" s="49"/>
+      <c r="EB19" s="49"/>
+      <c r="EC19" s="49"/>
+      <c r="ED19" s="49"/>
+      <c r="EE19" s="49"/>
+      <c r="EF19" s="49"/>
+      <c r="EG19" s="49"/>
+      <c r="EH19" s="49"/>
+      <c r="EI19" s="49"/>
+      <c r="EJ19" s="49"/>
+      <c r="EK19" s="49"/>
+      <c r="EL19" s="49"/>
+      <c r="EM19" s="49"/>
+      <c r="EN19" s="49"/>
+      <c r="EO19" s="49"/>
+      <c r="EP19" s="49"/>
+      <c r="EQ19" s="49"/>
+      <c r="ER19" s="49"/>
+      <c r="ES19" s="49"/>
+      <c r="ET19" s="49"/>
+      <c r="EU19" s="49"/>
+      <c r="EV19" s="49"/>
+      <c r="EW19" s="49"/>
+      <c r="EX19" s="49"/>
+      <c r="EY19" s="49"/>
+      <c r="EZ19" s="49"/>
+      <c r="FA19" s="49"/>
+    </row>
+    <row r="20" spans="1:157" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="G20" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="54"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="55"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="55"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
+      <c r="BM20" s="50"/>
+      <c r="BN20" s="50"/>
+      <c r="BO20" s="50"/>
+      <c r="BP20" s="50"/>
+      <c r="BQ20" s="50"/>
+      <c r="BR20" s="50"/>
+      <c r="BS20" s="50"/>
+      <c r="BT20" s="50"/>
+      <c r="BU20" s="50"/>
+      <c r="BV20" s="50"/>
+      <c r="BW20" s="50"/>
+      <c r="BX20" s="50"/>
+      <c r="BY20" s="50"/>
+      <c r="BZ20" s="50"/>
+      <c r="CA20" s="50"/>
+      <c r="CB20" s="50"/>
+      <c r="CC20" s="50"/>
+      <c r="CD20" s="50"/>
+      <c r="CE20" s="50"/>
+      <c r="CF20" s="50"/>
+      <c r="CG20" s="50"/>
+      <c r="CH20" s="50"/>
+      <c r="CI20" s="50"/>
+      <c r="CJ20" s="50"/>
+      <c r="CK20" s="50"/>
+      <c r="CL20" s="50"/>
+      <c r="CM20" s="50"/>
+      <c r="CN20" s="50"/>
+      <c r="CO20" s="50"/>
+      <c r="CP20" s="50"/>
+      <c r="CQ20" s="50"/>
+      <c r="CR20" s="50"/>
+      <c r="CS20" s="50"/>
+      <c r="CT20" s="50"/>
+      <c r="CU20" s="50"/>
+      <c r="CV20" s="50"/>
+      <c r="CW20" s="50"/>
+      <c r="CX20" s="50"/>
+      <c r="CY20" s="50"/>
+      <c r="CZ20" s="50"/>
+      <c r="DA20" s="50"/>
+      <c r="DB20" s="50"/>
+      <c r="DC20" s="50"/>
+      <c r="DD20" s="50"/>
+      <c r="DE20" s="50"/>
+      <c r="DF20" s="50"/>
+      <c r="DG20" s="50"/>
+      <c r="DH20" s="50"/>
+      <c r="DI20" s="50"/>
+      <c r="DJ20" s="50"/>
+      <c r="DK20" s="50"/>
+      <c r="DL20" s="50"/>
+      <c r="DM20" s="50"/>
+      <c r="DN20" s="50"/>
+      <c r="DO20" s="50"/>
+      <c r="DP20" s="50"/>
+      <c r="DQ20" s="50"/>
+      <c r="DR20" s="50"/>
+      <c r="DS20" s="50"/>
+      <c r="DT20" s="50"/>
+      <c r="DU20" s="50"/>
+      <c r="DV20" s="50"/>
+      <c r="DW20" s="50"/>
+      <c r="DX20" s="50"/>
+      <c r="DY20" s="50"/>
+      <c r="DZ20" s="50"/>
+      <c r="EA20" s="50"/>
+      <c r="EB20" s="50"/>
+      <c r="EC20" s="50"/>
+      <c r="ED20" s="50"/>
+      <c r="EE20" s="50"/>
+      <c r="EF20" s="50"/>
+      <c r="EG20" s="50"/>
+      <c r="EH20" s="50"/>
+      <c r="EI20" s="50"/>
+      <c r="EJ20" s="50"/>
+      <c r="EK20" s="50"/>
+      <c r="EL20" s="50"/>
+      <c r="EM20" s="50"/>
+      <c r="EN20" s="50"/>
+      <c r="EO20" s="50"/>
+      <c r="EP20" s="50"/>
+      <c r="EQ20" s="50"/>
+      <c r="ER20" s="50"/>
+      <c r="ES20" s="50"/>
+      <c r="ET20" s="50"/>
+      <c r="EU20" s="50"/>
+      <c r="EV20" s="50"/>
+      <c r="EW20" s="50"/>
+      <c r="EX20" s="50"/>
+      <c r="EY20" s="50"/>
+      <c r="EZ20" s="50"/>
+      <c r="FA20" s="50"/>
+    </row>
+    <row r="21" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="G21" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="55"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="55"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="49"/>
+      <c r="BA21" s="49"/>
+      <c r="BB21" s="49"/>
+      <c r="BC21" s="49"/>
+      <c r="BD21" s="49"/>
+      <c r="BE21" s="49"/>
+      <c r="BF21" s="49"/>
+      <c r="BG21" s="49"/>
+      <c r="BH21" s="49"/>
+      <c r="BI21" s="49"/>
+      <c r="BJ21" s="49"/>
+      <c r="BK21" s="49"/>
+      <c r="BL21" s="49"/>
+      <c r="BM21" s="49"/>
+      <c r="BN21" s="49"/>
+      <c r="BO21" s="49"/>
+      <c r="BP21" s="49"/>
+      <c r="BQ21" s="49"/>
+      <c r="BR21" s="49"/>
+      <c r="BS21" s="49"/>
+      <c r="BT21" s="49"/>
+      <c r="BU21" s="49"/>
+      <c r="BV21" s="49"/>
+      <c r="BW21" s="49"/>
+      <c r="BX21" s="49"/>
+      <c r="BY21" s="49"/>
+      <c r="BZ21" s="49"/>
+      <c r="CA21" s="49"/>
+      <c r="CB21" s="49"/>
+      <c r="CC21" s="49"/>
+      <c r="CD21" s="49"/>
+      <c r="CE21" s="49"/>
+      <c r="CF21" s="49"/>
+      <c r="CG21" s="49"/>
+      <c r="CH21" s="49"/>
+      <c r="CI21" s="49"/>
+      <c r="CJ21" s="49"/>
+      <c r="CK21" s="49"/>
+      <c r="CL21" s="49"/>
+      <c r="CM21" s="49"/>
+      <c r="CN21" s="49"/>
+      <c r="CO21" s="49"/>
+      <c r="CP21" s="49"/>
+      <c r="CQ21" s="49"/>
+      <c r="CR21" s="49"/>
+      <c r="CS21" s="49"/>
+      <c r="CT21" s="49"/>
+      <c r="CU21" s="49"/>
+      <c r="CV21" s="49"/>
+      <c r="CW21" s="49"/>
+      <c r="CX21" s="49"/>
+      <c r="CY21" s="49"/>
+      <c r="CZ21" s="49"/>
+      <c r="DA21" s="49"/>
+      <c r="DB21" s="49"/>
+      <c r="DC21" s="49"/>
+      <c r="DD21" s="49"/>
+      <c r="DE21" s="49"/>
+      <c r="DF21" s="49"/>
+      <c r="DG21" s="49"/>
+      <c r="DH21" s="49"/>
+      <c r="DI21" s="49"/>
+      <c r="DJ21" s="49"/>
+      <c r="DK21" s="49"/>
+      <c r="DL21" s="49"/>
+      <c r="DM21" s="49"/>
+      <c r="DN21" s="49"/>
+      <c r="DO21" s="49"/>
+      <c r="DP21" s="49"/>
+      <c r="DQ21" s="49"/>
+      <c r="DR21" s="49"/>
+      <c r="DS21" s="49"/>
+      <c r="DT21" s="49"/>
+      <c r="DU21" s="49"/>
+      <c r="DV21" s="49"/>
+      <c r="DW21" s="49"/>
+      <c r="DX21" s="49"/>
+      <c r="DY21" s="49"/>
+      <c r="DZ21" s="49"/>
+      <c r="EA21" s="49"/>
+      <c r="EB21" s="49"/>
+      <c r="EC21" s="49"/>
+      <c r="ED21" s="49"/>
+      <c r="EE21" s="49"/>
+      <c r="EF21" s="49"/>
+      <c r="EG21" s="49"/>
+      <c r="EH21" s="49"/>
+      <c r="EI21" s="49"/>
+      <c r="EJ21" s="49"/>
+      <c r="EK21" s="49"/>
+      <c r="EL21" s="49"/>
+      <c r="EM21" s="49"/>
+      <c r="EN21" s="49"/>
+      <c r="EO21" s="49"/>
+      <c r="EP21" s="49"/>
+      <c r="EQ21" s="49"/>
+      <c r="ER21" s="49"/>
+      <c r="ES21" s="49"/>
+      <c r="ET21" s="49"/>
+      <c r="EU21" s="49"/>
+      <c r="EV21" s="49"/>
+      <c r="EW21" s="49"/>
+      <c r="EX21" s="49"/>
+      <c r="EY21" s="49"/>
+      <c r="EZ21" s="49"/>
+      <c r="FA21" s="49"/>
+    </row>
+    <row r="22" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="55"/>
+      <c r="K22" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="54"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="55"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="49"/>
+      <c r="BA22" s="49"/>
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="49"/>
+      <c r="BD22" s="49"/>
+      <c r="BE22" s="49"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="49"/>
+      <c r="BK22" s="49"/>
+      <c r="BL22" s="49"/>
+      <c r="BM22" s="49"/>
+      <c r="BN22" s="49"/>
+      <c r="BO22" s="49"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="49"/>
+      <c r="BR22" s="49"/>
+      <c r="BS22" s="49"/>
+      <c r="BT22" s="49"/>
+      <c r="BU22" s="49"/>
+      <c r="BV22" s="49"/>
+      <c r="BW22" s="49"/>
+      <c r="BX22" s="49"/>
+      <c r="BY22" s="49"/>
+      <c r="BZ22" s="49"/>
+      <c r="CA22" s="49"/>
+      <c r="CB22" s="49"/>
+      <c r="CC22" s="49"/>
+      <c r="CD22" s="49"/>
+      <c r="CE22" s="49"/>
+      <c r="CF22" s="49"/>
+      <c r="CG22" s="49"/>
+      <c r="CH22" s="49"/>
+      <c r="CI22" s="49"/>
+      <c r="CJ22" s="49"/>
+      <c r="CK22" s="49"/>
+      <c r="CL22" s="49"/>
+      <c r="CM22" s="49"/>
+      <c r="CN22" s="49"/>
+      <c r="CO22" s="49"/>
+      <c r="CP22" s="49"/>
+      <c r="CQ22" s="49"/>
+      <c r="CR22" s="49"/>
+      <c r="CS22" s="49"/>
+      <c r="CT22" s="49"/>
+      <c r="CU22" s="49"/>
+      <c r="CV22" s="49"/>
+      <c r="CW22" s="49"/>
+      <c r="CX22" s="49"/>
+      <c r="CY22" s="49"/>
+      <c r="CZ22" s="49"/>
+      <c r="DA22" s="49"/>
+      <c r="DB22" s="49"/>
+      <c r="DC22" s="49"/>
+      <c r="DD22" s="49"/>
+      <c r="DE22" s="49"/>
+      <c r="DF22" s="49"/>
+      <c r="DG22" s="49"/>
+      <c r="DH22" s="49"/>
+      <c r="DI22" s="49"/>
+      <c r="DJ22" s="49"/>
+      <c r="DK22" s="49"/>
+      <c r="DL22" s="49"/>
+      <c r="DM22" s="49"/>
+      <c r="DN22" s="49"/>
+      <c r="DO22" s="49"/>
+      <c r="DP22" s="49"/>
+      <c r="DQ22" s="49"/>
+      <c r="DR22" s="49"/>
+      <c r="DS22" s="49"/>
+      <c r="DT22" s="49"/>
+      <c r="DU22" s="49"/>
+      <c r="DV22" s="49"/>
+      <c r="DW22" s="49"/>
+      <c r="DX22" s="49"/>
+      <c r="DY22" s="49"/>
+      <c r="DZ22" s="49"/>
+      <c r="EA22" s="49"/>
+      <c r="EB22" s="49"/>
+      <c r="EC22" s="49"/>
+      <c r="ED22" s="49"/>
+      <c r="EE22" s="49"/>
+      <c r="EF22" s="49"/>
+      <c r="EG22" s="49"/>
+      <c r="EH22" s="49"/>
+      <c r="EI22" s="49"/>
+      <c r="EJ22" s="49"/>
+      <c r="EK22" s="49"/>
+      <c r="EL22" s="49"/>
+      <c r="EM22" s="49"/>
+      <c r="EN22" s="49"/>
+      <c r="EO22" s="49"/>
+      <c r="EP22" s="49"/>
+      <c r="EQ22" s="49"/>
+      <c r="ER22" s="49"/>
+      <c r="ES22" s="49"/>
+      <c r="ET22" s="49"/>
+      <c r="EU22" s="49"/>
+      <c r="EV22" s="49"/>
+      <c r="EW22" s="49"/>
+      <c r="EX22" s="49"/>
+      <c r="EY22" s="49"/>
+      <c r="EZ22" s="49"/>
+      <c r="FA22" s="49"/>
+    </row>
+    <row r="23" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="55"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="55"/>
+      <c r="O23" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="49"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="49"/>
+      <c r="BJ23" s="49"/>
+      <c r="BK23" s="49"/>
+      <c r="BL23" s="49"/>
+      <c r="BM23" s="49"/>
+      <c r="BN23" s="49"/>
+      <c r="BO23" s="49"/>
+      <c r="BP23" s="49"/>
+      <c r="BQ23" s="49"/>
+      <c r="BR23" s="49"/>
+      <c r="BS23" s="49"/>
+      <c r="BT23" s="49"/>
+      <c r="BU23" s="49"/>
+      <c r="BV23" s="49"/>
+      <c r="BW23" s="49"/>
+      <c r="BX23" s="49"/>
+      <c r="BY23" s="49"/>
+      <c r="BZ23" s="49"/>
+      <c r="CA23" s="49"/>
+      <c r="CB23" s="49"/>
+      <c r="CC23" s="49"/>
+      <c r="CD23" s="49"/>
+      <c r="CE23" s="49"/>
+      <c r="CF23" s="49"/>
+      <c r="CG23" s="49"/>
+      <c r="CH23" s="49"/>
+      <c r="CI23" s="49"/>
+      <c r="CJ23" s="49"/>
+      <c r="CK23" s="49"/>
+      <c r="CL23" s="49"/>
+      <c r="CM23" s="49"/>
+      <c r="CN23" s="49"/>
+      <c r="CO23" s="49"/>
+      <c r="CP23" s="49"/>
+      <c r="CQ23" s="49"/>
+      <c r="CR23" s="49"/>
+      <c r="CS23" s="49"/>
+      <c r="CT23" s="49"/>
+      <c r="CU23" s="49"/>
+      <c r="CV23" s="49"/>
+      <c r="CW23" s="49"/>
+      <c r="CX23" s="49"/>
+      <c r="CY23" s="49"/>
+      <c r="CZ23" s="49"/>
+      <c r="DA23" s="49"/>
+      <c r="DB23" s="49"/>
+      <c r="DC23" s="49"/>
+      <c r="DD23" s="49"/>
+      <c r="DE23" s="49"/>
+      <c r="DF23" s="49"/>
+      <c r="DG23" s="49"/>
+      <c r="DH23" s="49"/>
+      <c r="DI23" s="49"/>
+      <c r="DJ23" s="49"/>
+      <c r="DK23" s="49"/>
+      <c r="DL23" s="49"/>
+      <c r="DM23" s="49"/>
+      <c r="DN23" s="49"/>
+      <c r="DO23" s="49"/>
+      <c r="DP23" s="49"/>
+      <c r="DQ23" s="49"/>
+      <c r="DR23" s="49"/>
+      <c r="DS23" s="49"/>
+      <c r="DT23" s="49"/>
+      <c r="DU23" s="49"/>
+      <c r="DV23" s="49"/>
+      <c r="DW23" s="49"/>
+      <c r="DX23" s="49"/>
+      <c r="DY23" s="49"/>
+      <c r="DZ23" s="49"/>
+      <c r="EA23" s="49"/>
+      <c r="EB23" s="49"/>
+      <c r="EC23" s="49"/>
+      <c r="ED23" s="49"/>
+      <c r="EE23" s="49"/>
+      <c r="EF23" s="49"/>
+      <c r="EG23" s="49"/>
+      <c r="EH23" s="49"/>
+      <c r="EI23" s="49"/>
+      <c r="EJ23" s="49"/>
+      <c r="EK23" s="49"/>
+      <c r="EL23" s="49"/>
+      <c r="EM23" s="49"/>
+      <c r="EN23" s="49"/>
+      <c r="EO23" s="49"/>
+      <c r="EP23" s="49"/>
+      <c r="EQ23" s="49"/>
+      <c r="ER23" s="49"/>
+      <c r="ES23" s="49"/>
+      <c r="ET23" s="49"/>
+      <c r="EU23" s="49"/>
+      <c r="EV23" s="49"/>
+      <c r="EW23" s="49"/>
+      <c r="EX23" s="49"/>
+      <c r="EY23" s="49"/>
+      <c r="EZ23" s="49"/>
+      <c r="FA23" s="49"/>
+    </row>
+    <row r="24" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="55"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="55"/>
+      <c r="O24" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="49"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="49"/>
+      <c r="BC24" s="49"/>
+      <c r="BD24" s="49"/>
+      <c r="BE24" s="49"/>
+      <c r="BF24" s="49"/>
+      <c r="BG24" s="49"/>
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="49"/>
+      <c r="BJ24" s="49"/>
+      <c r="BK24" s="49"/>
+      <c r="BL24" s="49"/>
+      <c r="BM24" s="49"/>
+      <c r="BN24" s="49"/>
+      <c r="BO24" s="49"/>
+      <c r="BP24" s="49"/>
+      <c r="BQ24" s="49"/>
+      <c r="BR24" s="49"/>
+      <c r="BS24" s="49"/>
+      <c r="BT24" s="49"/>
+      <c r="BU24" s="49"/>
+      <c r="BV24" s="49"/>
+      <c r="BW24" s="49"/>
+      <c r="BX24" s="49"/>
+      <c r="BY24" s="49"/>
+      <c r="BZ24" s="49"/>
+      <c r="CA24" s="49"/>
+      <c r="CB24" s="49"/>
+      <c r="CC24" s="49"/>
+      <c r="CD24" s="49"/>
+      <c r="CE24" s="49"/>
+      <c r="CF24" s="49"/>
+      <c r="CG24" s="49"/>
+      <c r="CH24" s="49"/>
+      <c r="CI24" s="49"/>
+      <c r="CJ24" s="49"/>
+      <c r="CK24" s="49"/>
+      <c r="CL24" s="49"/>
+      <c r="CM24" s="49"/>
+      <c r="CN24" s="49"/>
+      <c r="CO24" s="49"/>
+      <c r="CP24" s="49"/>
+      <c r="CQ24" s="49"/>
+      <c r="CR24" s="49"/>
+      <c r="CS24" s="49"/>
+      <c r="CT24" s="49"/>
+      <c r="CU24" s="49"/>
+      <c r="CV24" s="49"/>
+      <c r="CW24" s="49"/>
+      <c r="CX24" s="49"/>
+      <c r="CY24" s="49"/>
+      <c r="CZ24" s="49"/>
+      <c r="DA24" s="49"/>
+      <c r="DB24" s="49"/>
+      <c r="DC24" s="49"/>
+      <c r="DD24" s="49"/>
+      <c r="DE24" s="49"/>
+      <c r="DF24" s="49"/>
+      <c r="DG24" s="49"/>
+      <c r="DH24" s="49"/>
+      <c r="DI24" s="49"/>
+      <c r="DJ24" s="49"/>
+      <c r="DK24" s="49"/>
+      <c r="DL24" s="49"/>
+      <c r="DM24" s="49"/>
+      <c r="DN24" s="49"/>
+      <c r="DO24" s="49"/>
+      <c r="DP24" s="49"/>
+      <c r="DQ24" s="49"/>
+      <c r="DR24" s="49"/>
+      <c r="DS24" s="49"/>
+      <c r="DT24" s="49"/>
+      <c r="DU24" s="49"/>
+      <c r="DV24" s="49"/>
+      <c r="DW24" s="49"/>
+      <c r="DX24" s="49"/>
+      <c r="DY24" s="49"/>
+      <c r="DZ24" s="49"/>
+      <c r="EA24" s="49"/>
+      <c r="EB24" s="49"/>
+      <c r="EC24" s="49"/>
+      <c r="ED24" s="49"/>
+      <c r="EE24" s="49"/>
+      <c r="EF24" s="49"/>
+      <c r="EG24" s="49"/>
+      <c r="EH24" s="49"/>
+      <c r="EI24" s="49"/>
+      <c r="EJ24" s="49"/>
+      <c r="EK24" s="49"/>
+      <c r="EL24" s="49"/>
+      <c r="EM24" s="49"/>
+      <c r="EN24" s="49"/>
+      <c r="EO24" s="49"/>
+      <c r="EP24" s="49"/>
+      <c r="EQ24" s="49"/>
+      <c r="ER24" s="49"/>
+      <c r="ES24" s="49"/>
+      <c r="ET24" s="49"/>
+      <c r="EU24" s="49"/>
+      <c r="EV24" s="49"/>
+      <c r="EW24" s="49"/>
+      <c r="EX24" s="49"/>
+      <c r="EY24" s="49"/>
+      <c r="EZ24" s="49"/>
+      <c r="FA24" s="49"/>
+    </row>
+    <row r="25" spans="1:157" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+      <c r="O25" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49"/>
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
+      <c r="BP25" s="49"/>
+      <c r="BQ25" s="49"/>
+      <c r="BR25" s="49"/>
+      <c r="BS25" s="49"/>
+      <c r="BT25" s="49"/>
+      <c r="BU25" s="49"/>
+      <c r="BV25" s="49"/>
+      <c r="BW25" s="49"/>
+      <c r="BX25" s="49"/>
+      <c r="BY25" s="49"/>
+      <c r="BZ25" s="49"/>
+      <c r="CA25" s="49"/>
+      <c r="CB25" s="49"/>
+      <c r="CC25" s="49"/>
+      <c r="CD25" s="49"/>
+      <c r="CE25" s="49"/>
+      <c r="CF25" s="49"/>
+      <c r="CG25" s="49"/>
+      <c r="CH25" s="49"/>
+      <c r="CI25" s="49"/>
+      <c r="CJ25" s="49"/>
+      <c r="CK25" s="49"/>
+      <c r="CL25" s="49"/>
+      <c r="CM25" s="49"/>
+      <c r="CN25" s="49"/>
+      <c r="CO25" s="49"/>
+      <c r="CP25" s="49"/>
+      <c r="CQ25" s="49"/>
+      <c r="CR25" s="49"/>
+      <c r="CS25" s="49"/>
+      <c r="CT25" s="49"/>
+      <c r="CU25" s="49"/>
+      <c r="CV25" s="49"/>
+      <c r="CW25" s="49"/>
+      <c r="CX25" s="49"/>
+      <c r="CY25" s="49"/>
+      <c r="CZ25" s="49"/>
+      <c r="DA25" s="49"/>
+      <c r="DB25" s="49"/>
+      <c r="DC25" s="49"/>
+      <c r="DD25" s="49"/>
+      <c r="DE25" s="49"/>
+      <c r="DF25" s="49"/>
+      <c r="DG25" s="49"/>
+      <c r="DH25" s="49"/>
+      <c r="DI25" s="49"/>
+      <c r="DJ25" s="49"/>
+      <c r="DK25" s="49"/>
+      <c r="DL25" s="49"/>
+      <c r="DM25" s="49"/>
+      <c r="DN25" s="49"/>
+      <c r="DO25" s="49"/>
+      <c r="DP25" s="49"/>
+      <c r="DQ25" s="49"/>
+      <c r="DR25" s="49"/>
+      <c r="DS25" s="49"/>
+      <c r="DT25" s="49"/>
+      <c r="DU25" s="49"/>
+      <c r="DV25" s="49"/>
+      <c r="DW25" s="49"/>
+      <c r="DX25" s="49"/>
+      <c r="DY25" s="49"/>
+      <c r="DZ25" s="49"/>
+      <c r="EA25" s="49"/>
+      <c r="EB25" s="49"/>
+      <c r="EC25" s="49"/>
+      <c r="ED25" s="49"/>
+      <c r="EE25" s="49"/>
+      <c r="EF25" s="49"/>
+      <c r="EG25" s="49"/>
+      <c r="EH25" s="49"/>
+      <c r="EI25" s="49"/>
+      <c r="EJ25" s="49"/>
+      <c r="EK25" s="49"/>
+      <c r="EL25" s="49"/>
+      <c r="EM25" s="49"/>
+      <c r="EN25" s="49"/>
+      <c r="EO25" s="49"/>
+      <c r="EP25" s="49"/>
+      <c r="EQ25" s="49"/>
+      <c r="ER25" s="49"/>
+      <c r="ES25" s="49"/>
+      <c r="ET25" s="49"/>
+      <c r="EU25" s="49"/>
+      <c r="EV25" s="49"/>
+      <c r="EW25" s="49"/>
+      <c r="EX25" s="49"/>
+      <c r="EY25" s="49"/>
+      <c r="EZ25" s="49"/>
+      <c r="FA25" s="49"/>
+    </row>
+    <row r="26" spans="1:157" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="K26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="O26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
+      <c r="BP26" s="49"/>
+      <c r="BQ26" s="49"/>
+      <c r="BR26" s="49"/>
+      <c r="BS26" s="49"/>
+      <c r="BT26" s="49"/>
+      <c r="BU26" s="49"/>
+      <c r="BV26" s="49"/>
+      <c r="BW26" s="49"/>
+      <c r="BX26" s="49"/>
+      <c r="BY26" s="49"/>
+      <c r="BZ26" s="49"/>
+      <c r="CA26" s="49"/>
+      <c r="CB26" s="49"/>
+      <c r="CC26" s="49"/>
+      <c r="CD26" s="49"/>
+      <c r="CE26" s="49"/>
+      <c r="CF26" s="49"/>
+      <c r="CG26" s="49"/>
+      <c r="CH26" s="49"/>
+      <c r="CI26" s="49"/>
+      <c r="CJ26" s="49"/>
+      <c r="CK26" s="49"/>
+      <c r="CL26" s="49"/>
+      <c r="CM26" s="49"/>
+      <c r="CN26" s="49"/>
+      <c r="CO26" s="49"/>
+      <c r="CP26" s="49"/>
+      <c r="CQ26" s="49"/>
+      <c r="CR26" s="49"/>
+      <c r="CS26" s="49"/>
+      <c r="CT26" s="49"/>
+      <c r="CU26" s="49"/>
+      <c r="CV26" s="49"/>
+      <c r="CW26" s="49"/>
+      <c r="CX26" s="49"/>
+      <c r="CY26" s="49"/>
+      <c r="CZ26" s="49"/>
+      <c r="DA26" s="49"/>
+      <c r="DB26" s="49"/>
+      <c r="DC26" s="49"/>
+      <c r="DD26" s="49"/>
+      <c r="DE26" s="49"/>
+      <c r="DF26" s="49"/>
+      <c r="DG26" s="49"/>
+      <c r="DH26" s="49"/>
+      <c r="DI26" s="49"/>
+      <c r="DJ26" s="49"/>
+      <c r="DK26" s="49"/>
+      <c r="DL26" s="49"/>
+      <c r="DM26" s="49"/>
+      <c r="DN26" s="49"/>
+      <c r="DO26" s="49"/>
+      <c r="DP26" s="49"/>
+      <c r="DQ26" s="49"/>
+      <c r="DR26" s="49"/>
+      <c r="DS26" s="49"/>
+      <c r="DT26" s="49"/>
+      <c r="DU26" s="49"/>
+      <c r="DV26" s="49"/>
+      <c r="DW26" s="49"/>
+      <c r="DX26" s="49"/>
+      <c r="DY26" s="49"/>
+      <c r="DZ26" s="49"/>
+      <c r="EA26" s="49"/>
+      <c r="EB26" s="49"/>
+      <c r="EC26" s="49"/>
+      <c r="ED26" s="49"/>
+      <c r="EE26" s="49"/>
+      <c r="EF26" s="49"/>
+      <c r="EG26" s="49"/>
+      <c r="EH26" s="49"/>
+      <c r="EI26" s="49"/>
+      <c r="EJ26" s="49"/>
+      <c r="EK26" s="49"/>
+      <c r="EL26" s="49"/>
+      <c r="EM26" s="49"/>
+      <c r="EN26" s="49"/>
+      <c r="EO26" s="49"/>
+      <c r="EP26" s="49"/>
+      <c r="EQ26" s="49"/>
+      <c r="ER26" s="49"/>
+      <c r="ES26" s="49"/>
+      <c r="ET26" s="49"/>
+      <c r="EU26" s="49"/>
+      <c r="EV26" s="49"/>
+      <c r="EW26" s="49"/>
+      <c r="EX26" s="49"/>
+      <c r="EY26" s="49"/>
+      <c r="EZ26" s="49"/>
+      <c r="FA26" s="49"/>
+    </row>
+    <row r="27" spans="1:157" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="49"/>
+      <c r="BP27" s="49"/>
+      <c r="BQ27" s="49"/>
+      <c r="BR27" s="49"/>
+      <c r="BS27" s="49"/>
+      <c r="BT27" s="49"/>
+      <c r="BU27" s="49"/>
+      <c r="BV27" s="49"/>
+      <c r="BW27" s="49"/>
+      <c r="BX27" s="49"/>
+      <c r="BY27" s="49"/>
+      <c r="BZ27" s="49"/>
+      <c r="CA27" s="49"/>
+      <c r="CB27" s="49"/>
+      <c r="CC27" s="49"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
+      <c r="CH27" s="49"/>
+      <c r="CI27" s="49"/>
+      <c r="CJ27" s="49"/>
+      <c r="CK27" s="49"/>
+      <c r="CL27" s="49"/>
+      <c r="CM27" s="49"/>
+      <c r="CN27" s="49"/>
+      <c r="CO27" s="49"/>
+      <c r="CP27" s="49"/>
+      <c r="CQ27" s="49"/>
+      <c r="CR27" s="49"/>
+      <c r="CS27" s="49"/>
+      <c r="CT27" s="49"/>
+      <c r="CU27" s="49"/>
+      <c r="CV27" s="49"/>
+      <c r="CW27" s="49"/>
+      <c r="CX27" s="49"/>
+      <c r="CY27" s="49"/>
+      <c r="CZ27" s="49"/>
+      <c r="DA27" s="49"/>
+      <c r="DB27" s="49"/>
+      <c r="DC27" s="49"/>
+      <c r="DD27" s="49"/>
+      <c r="DE27" s="49"/>
+      <c r="DF27" s="49"/>
+      <c r="DG27" s="49"/>
+      <c r="DH27" s="49"/>
+      <c r="DI27" s="49"/>
+      <c r="DJ27" s="49"/>
+      <c r="DK27" s="49"/>
+      <c r="DL27" s="49"/>
+      <c r="DM27" s="49"/>
+      <c r="DN27" s="49"/>
+      <c r="DO27" s="49"/>
+      <c r="DP27" s="49"/>
+      <c r="DQ27" s="49"/>
+      <c r="DR27" s="49"/>
+      <c r="DS27" s="49"/>
+      <c r="DT27" s="49"/>
+      <c r="DU27" s="49"/>
+      <c r="DV27" s="49"/>
+      <c r="DW27" s="49"/>
+      <c r="DX27" s="49"/>
+      <c r="DY27" s="49"/>
+      <c r="DZ27" s="49"/>
+      <c r="EA27" s="49"/>
+      <c r="EB27" s="49"/>
+      <c r="EC27" s="49"/>
+      <c r="ED27" s="49"/>
+      <c r="EE27" s="49"/>
+      <c r="EF27" s="49"/>
+      <c r="EG27" s="49"/>
+      <c r="EH27" s="49"/>
+      <c r="EI27" s="49"/>
+      <c r="EJ27" s="49"/>
+      <c r="EK27" s="49"/>
+      <c r="EL27" s="49"/>
+      <c r="EM27" s="49"/>
+      <c r="EN27" s="49"/>
+      <c r="EO27" s="49"/>
+      <c r="EP27" s="49"/>
+      <c r="EQ27" s="49"/>
+      <c r="ER27" s="49"/>
+      <c r="ES27" s="49"/>
+      <c r="ET27" s="49"/>
+      <c r="EU27" s="49"/>
+      <c r="EV27" s="49"/>
+      <c r="EW27" s="49"/>
+      <c r="EX27" s="49"/>
+      <c r="EY27" s="49"/>
+      <c r="EZ27" s="49"/>
+      <c r="FA27" s="49"/>
+    </row>
+    <row r="28" spans="1:157" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="42"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="55"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="55"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="55"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
+      <c r="BP28" s="49"/>
+      <c r="BQ28" s="49"/>
+      <c r="BR28" s="49"/>
+      <c r="BS28" s="49"/>
+      <c r="BT28" s="49"/>
+      <c r="BU28" s="49"/>
+      <c r="BV28" s="49"/>
+      <c r="BW28" s="49"/>
+      <c r="BX28" s="49"/>
+      <c r="BY28" s="49"/>
+      <c r="BZ28" s="49"/>
+      <c r="CA28" s="49"/>
+      <c r="CB28" s="49"/>
+      <c r="CC28" s="49"/>
+      <c r="CD28" s="49"/>
+      <c r="CE28" s="49"/>
+      <c r="CF28" s="49"/>
+      <c r="CG28" s="49"/>
+      <c r="CH28" s="49"/>
+      <c r="CI28" s="49"/>
+      <c r="CJ28" s="49"/>
+      <c r="CK28" s="49"/>
+      <c r="CL28" s="49"/>
+      <c r="CM28" s="49"/>
+      <c r="CN28" s="49"/>
+      <c r="CO28" s="49"/>
+      <c r="CP28" s="49"/>
+      <c r="CQ28" s="49"/>
+      <c r="CR28" s="49"/>
+      <c r="CS28" s="49"/>
+      <c r="CT28" s="49"/>
+      <c r="CU28" s="49"/>
+      <c r="CV28" s="49"/>
+      <c r="CW28" s="49"/>
+      <c r="CX28" s="49"/>
+      <c r="CY28" s="49"/>
+      <c r="CZ28" s="49"/>
+      <c r="DA28" s="49"/>
+      <c r="DB28" s="49"/>
+      <c r="DC28" s="49"/>
+      <c r="DD28" s="49"/>
+      <c r="DE28" s="49"/>
+      <c r="DF28" s="49"/>
+      <c r="DG28" s="49"/>
+      <c r="DH28" s="49"/>
+      <c r="DI28" s="49"/>
+      <c r="DJ28" s="49"/>
+      <c r="DK28" s="49"/>
+      <c r="DL28" s="49"/>
+      <c r="DM28" s="49"/>
+      <c r="DN28" s="49"/>
+      <c r="DO28" s="49"/>
+      <c r="DP28" s="49"/>
+      <c r="DQ28" s="49"/>
+      <c r="DR28" s="49"/>
+      <c r="DS28" s="49"/>
+      <c r="DT28" s="49"/>
+      <c r="DU28" s="49"/>
+      <c r="DV28" s="49"/>
+      <c r="DW28" s="49"/>
+      <c r="DX28" s="49"/>
+      <c r="DY28" s="49"/>
+      <c r="DZ28" s="49"/>
+      <c r="EA28" s="49"/>
+      <c r="EB28" s="49"/>
+      <c r="EC28" s="49"/>
+      <c r="ED28" s="49"/>
+      <c r="EE28" s="49"/>
+      <c r="EF28" s="49"/>
+      <c r="EG28" s="49"/>
+      <c r="EH28" s="49"/>
+      <c r="EI28" s="49"/>
+      <c r="EJ28" s="49"/>
+      <c r="EK28" s="49"/>
+      <c r="EL28" s="49"/>
+      <c r="EM28" s="49"/>
+      <c r="EN28" s="49"/>
+      <c r="EO28" s="49"/>
+      <c r="EP28" s="49"/>
+      <c r="EQ28" s="49"/>
+      <c r="ER28" s="49"/>
+      <c r="ES28" s="49"/>
+      <c r="ET28" s="49"/>
+      <c r="EU28" s="49"/>
+      <c r="EV28" s="49"/>
+      <c r="EW28" s="49"/>
+      <c r="EX28" s="49"/>
+      <c r="EY28" s="49"/>
+      <c r="EZ28" s="49"/>
+      <c r="FA28" s="49"/>
+    </row>
+    <row r="29" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="44"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="55"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="55"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="55"/>
+    </row>
+    <row r="30" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="44"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="55"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="55"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="55"/>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="F16" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
+    <row r="31" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="44"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="55"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="55"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="55"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="F17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="45"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="F18" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="F19" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="F20" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="F21" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="J22" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="N23" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="N24" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="N25" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="L26" s="34"/>
-      <c r="N26" s="33"/>
-      <c r="P26" s="34"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="37"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="39"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="47"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="39"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="39"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="47"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:157" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
       <c r="B32" s="60"/>
       <c r="C32" s="61"/>
-      <c r="D32" s="39"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="47"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="44"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="55"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="55"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="55"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
       <c r="B33" s="60"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="39"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="44"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="55"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="55"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="55"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
       <c r="B34" s="60"/>
       <c r="C34" s="61"/>
-      <c r="D34" s="39"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="44"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="55"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="55"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="55"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
-      <c r="D35" s="39"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="47"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="44"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="55"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="55"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="55"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
       <c r="B36" s="60"/>
       <c r="C36" s="61"/>
-      <c r="D36" s="39"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="44"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="55"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="55"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="55"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
       <c r="B37" s="60"/>
       <c r="C37" s="61"/>
-      <c r="D37" s="39"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="47"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="47"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="44"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="55"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="55"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="55"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="41"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="50"/>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="46"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="58"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="58"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="Q7 A7:M7 Q12:Q25 A12:M12 A22:M25 A18:E21 M18:M21 A13:F17 H13:M17" name="Contact Fields"/>
-    <protectedRange sqref="A28:Q38" name="Questionnaire"/>
+    <protectedRange sqref="N9:R11 R12:R25 A7:R7 N12:O25 J8:R8 A8:G25 J9:K25" name="Contact Fields"/>
+    <protectedRange sqref="A28:R38" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="N7:P7 N12:P25" name="Contact Fields_1"/>
-    <protectedRange sqref="A8:Q11" name="Contact Fields_3"/>
-    <protectedRange sqref="F18:F21 H18:L21" name="Contact Fields_4"/>
-    <protectedRange sqref="G13:G21" name="Contact Fields_5"/>
+    <protectedRange sqref="H25 H8:I24" name="Contact Fields_1"/>
+    <protectedRange sqref="I25" name="Questionnaire_1"/>
+    <protectedRange sqref="L9:M25" name="Contact Fields_2"/>
+    <protectedRange sqref="P12:Q25" name="Contact Fields_3"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
-  <conditionalFormatting sqref="A25:I26 B12:X12 J22:X26 M18:X21 B22:I24 B18:E21 B13:F17 H13:X17">
-    <cfRule type="expression" dxfId="29" priority="65">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="66">
+  <conditionalFormatting sqref="A25:G25 J9:K12 N12:O13 J8 A26:Z26 N9:Z11 R12:Z13 R22:Z25 R20:R21 R15:Z19 R14 N8:R8 N15:O19 N14 N21:O25 N20 B22:G24 B8:F21 J22:K25 J19:J21 J16:K18 J13:J15">
+    <cfRule type="expression" dxfId="113" priority="139">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="140">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28:Q38">
+    <cfRule type="expression" dxfId="111" priority="133">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="134">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:M38">
+    <cfRule type="expression" dxfId="109" priority="131">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="132">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:I38">
+    <cfRule type="expression" dxfId="107" priority="129">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="130">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A24">
+    <cfRule type="expression" dxfId="105" priority="127">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="128">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 H22:I24">
+    <cfRule type="expression" dxfId="103" priority="119">
+      <formula>$C22="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="120">
+      <formula>$D22="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="101" priority="117">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="118">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M12 L22:M25 L16:M18">
+    <cfRule type="expression" dxfId="99" priority="113">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="114">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:Q13 P15:Q19 P21:Q25">
+    <cfRule type="expression" dxfId="97" priority="105">
       <formula>$C12="x"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="96" priority="106">
+      <formula>$D12="x"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:H38 N28:P38 J28:L38">
-    <cfRule type="expression" dxfId="27" priority="77">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="78">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="K8:M8">
+    <cfRule type="expression" dxfId="95" priority="101">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="102">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A24">
-    <cfRule type="expression" dxfId="25" priority="79">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="80">
+  <conditionalFormatting sqref="S14">
+    <cfRule type="expression" dxfId="93" priority="97">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="98">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:V20">
+    <cfRule type="expression" dxfId="91" priority="95">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="96">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="89" priority="93">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="94">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14:Q14">
+    <cfRule type="expression" dxfId="87" priority="91">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="92">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="expression" dxfId="85" priority="89">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="90">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:Q20">
+    <cfRule type="expression" dxfId="83" priority="87">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="88">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="81" priority="85">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="86">
+      <formula>$D21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="expression" dxfId="79" priority="83">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="84">
+      <formula>$D21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="77" priority="81">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="82">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:I20">
+    <cfRule type="expression" dxfId="75" priority="79">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="80">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="73" priority="77">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="78">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I19">
+    <cfRule type="expression" dxfId="71" priority="75">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="76">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="69" priority="73">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="74">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18">
+    <cfRule type="expression" dxfId="67" priority="71">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="72">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="65" priority="69">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="70">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17">
+    <cfRule type="expression" dxfId="63" priority="67">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="68">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="61" priority="65">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="66">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:I16">
+    <cfRule type="expression" dxfId="59" priority="63">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="64">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="57" priority="61">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="62">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:I15">
+    <cfRule type="expression" dxfId="55" priority="59">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="60">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="53" priority="57">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="58">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="expression" dxfId="51" priority="55">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="56">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I13">
+    <cfRule type="expression" dxfId="47" priority="51">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="45" priority="49">
       <formula>$C12="x"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="44" priority="50">
+      <formula>$D12="x"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+  <conditionalFormatting sqref="H12:I12">
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>$C11="x"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="40" priority="46">
+      <formula>$D11="x"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+  <conditionalFormatting sqref="H11:I11">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$C8="x"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$D8="x"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$C9="x"</formula>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$C10="x"</formula>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$D21="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:I21 J19:L21">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$C18="x"</formula>
+  <conditionalFormatting sqref="L21:M21">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>$D21="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$C18="x"</formula>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="21" priority="25">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="26">
+      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+  <conditionalFormatting sqref="L20:M20">
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$C19="x"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>$D19="x"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+  <conditionalFormatting sqref="L19:M19">
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:M14">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:M15">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:M13">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C20="x"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$C21="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:L18">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$C18="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>#REF!="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$C18="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G21">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>#REF!="x"</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$C13="x"</formula>
+      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:H38 P28:P38 L28:L38 P7:P25 H7:H25 L7:L25" xr:uid="{10697AB6-D0B6-480F-8335-453638E70828}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q25 I7:I25 Q28:Q38 I28:I38 M28:M38 M7:M25" xr:uid="{0BE3D8E5-F97D-475C-BA35-FE2F71EABFA3}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C25" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
-      <formula1>"x"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\Hubspot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C3B4A-316B-4DC9-867A-C4BB82C1AA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D535A66-A8FD-4059-8890-758AEE2419B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$17</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$7:$Q$17,Tabelle1!$Q$20:$Q$30,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$M$7:$M$17,Tabelle1!$M$20:$M$30,Tabelle1!$I$20:$I$30,Tabelle1!$I$7:$I$17</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$16</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$16,Tabelle1!$Q$19:$Q$29,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$M$6:$M$16,Tabelle1!$M$19:$M$29,Tabelle1!$I$19:$I$29,Tabelle1!$I$6:$I$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>snapADDY</t>
   </si>
@@ -113,39 +113,6 @@
   </si>
   <si>
     <t>Time of creation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter name of master-template here]</t>
-    </r>
   </si>
   <si>
     <t>CRM System: Hubspot</t>
@@ -218,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,23 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1007,18 +960,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1031,74 +983,74 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1117,35 +1069,35 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,13 +1370,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1496,13 +1448,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1863,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:CP31"/>
+  <dimension ref="A1:CP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,788 +1837,778 @@
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:94" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:94" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:94" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:94" ht="62.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="69" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:94" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:94" ht="62.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="61" t="s">
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:94" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
+    </row>
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="K7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+    </row>
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="K8" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
+    </row>
+    <row r="9" spans="1:94" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9"/>
+      <c r="K9" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+    </row>
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="K10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="K11" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+    </row>
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="K12" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="K13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+    </row>
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="O15" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:94" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="P15" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+      <c r="O16" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="K17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="O17" s="37"/>
+      <c r="Q17" s="38"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I18" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K18" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M18" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O18" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="Q18" s="48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-    </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="K8" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-    </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="K9" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
-    </row>
-    <row r="10" spans="1:94" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10"/>
-      <c r="K10" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-    </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="K11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-    </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="K12" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="K13" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
-    </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="K14" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
-    </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="O15" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="O16" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="O17" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="19" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="41"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="43"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="51"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="44"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="52"/>
+      <c r="A21" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="44"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52"/>
+      <c r="A22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="43"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="44"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="43"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="44"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="52"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="43"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="44"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="44"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="52"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="43"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="51"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="44"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="43"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="44"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="44"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="52"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="46"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="43"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="45"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="54"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A7:N17 R7:R17" name="Contact Fields"/>
-    <protectedRange sqref="A20:R30" name="Questionnaire"/>
-    <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="O7:Q17" name="Contact Fields_1"/>
+    <protectedRange sqref="A6:N16 R6:R16" name="Contact Fields"/>
+    <protectedRange sqref="A19:R29" name="Questionnaire"/>
+    <protectedRange sqref="O6:Q16" name="Contact Fields_1"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:J18 B8:J16 S8:Y8 S12:Y18">
+  <conditionalFormatting sqref="A16:J17 B7:J15 S7:Y7 S11:Y17">
     <cfRule type="expression" dxfId="21" priority="39">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="40">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:I29">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A15">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:R17 R7:R16">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:Q29">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:N17">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:M29">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:Q16">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:Y8">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="40">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:I30">
-    <cfRule type="expression" dxfId="19" priority="29">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
-      <formula>$D20="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
-    <cfRule type="expression" dxfId="17" priority="27">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:R18 R8:R17">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:Q30">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>$D20="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:N18">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:M30">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D20="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:Q17">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:Y9">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:Y10">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11:Y11">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C11="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D11="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M20:M30 M7:M17 I20:I30 I7:I17 Q20:Q30 Q7:Q17" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D16" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+      <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D17" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
-      <formula1>"x"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I16 M6:M16 Q6:Q16 Q19:Q29 M20:M28 M19 M29 I19:I29" xr:uid="{21CCF7DC-7941-4D52-B28E-045CE68FA307}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_Hubspot_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D535A66-A8FD-4059-8890-758AEE2419B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46B2E73-DA2A-464A-92EB-4965179C5B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$16</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$16,Tabelle1!$Q$19:$Q$29,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$M$6:$M$16,Tabelle1!$M$19:$M$29,Tabelle1!$I$19:$I$29,Tabelle1!$I$6:$I$16</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$24</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$24,Tabelle1!$Q$27:$Q$35,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$M$6:$M$24,Tabelle1!$M$27:$M$35,Tabelle1!$I$27:$I$35,Tabelle1!$I$6:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>snapADDY</t>
   </si>
@@ -94,24 +94,12 @@
     <t>ZIP / Postal Code</t>
   </si>
   <si>
-    <t>Campaign-ID</t>
-  </si>
-  <si>
-    <t>VR Title</t>
-  </si>
-  <si>
     <t>Created by</t>
   </si>
   <si>
     <t>Created on (Date)</t>
   </si>
   <si>
-    <t>Template-ID</t>
-  </si>
-  <si>
-    <t>Template title</t>
-  </si>
-  <si>
     <t>Time of creation</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
     <t>Pipeline-Phase</t>
   </si>
   <si>
@@ -179,6 +164,66 @@
   </si>
   <si>
     <t>Wert</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>picklist</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobilephone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -629,69 +674,6 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
@@ -953,6 +935,63 @@
       <top/>
       <bottom style="thick">
         <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF87757"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF87757"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF87757"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,26 +1088,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1077,33 +1133,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -1200,28 +1235,6 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
@@ -1244,8 +1257,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1448,14 +1461,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1815,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:CP30"/>
+  <dimension ref="A1:CP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,17 +1850,17 @@
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:94" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:94" ht="62.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="62.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1859,755 +1872,930 @@
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="G3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="K3" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
+      <c r="O3" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:94" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+    <row r="4" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="57"/>
-    </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="62"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="62"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="K7" s="49" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="K15" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="G16" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+    </row>
+    <row r="17" spans="1:94" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="G17" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+    </row>
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+    </row>
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="K21" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="49"/>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="O22" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="O23" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
-    </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="K8" s="49" t="s">
+      <c r="P23" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="O24" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
-    </row>
-    <row r="9" spans="1:94" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9"/>
-      <c r="K9" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
-      <c r="BY9"/>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
-      <c r="CI9"/>
-      <c r="CJ9"/>
-      <c r="CK9"/>
-      <c r="CL9"/>
-      <c r="CM9"/>
-      <c r="CN9"/>
-      <c r="CO9"/>
-      <c r="CP9"/>
-    </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="K10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="K11" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="50" t="s">
+      <c r="P24" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
-    </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="K12" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
-    </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="K13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
-    </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-      <c r="O14" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="Q24" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="O15" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
-      <c r="O16" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="K17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="O17" s="37"/>
-      <c r="Q17" s="38"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+    </row>
+    <row r="25" spans="1:94" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="O25" s="37"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="1:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B26" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G26" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H26" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I26" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K26" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L26" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M26" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="O26" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="47" t="s">
+      <c r="P26" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="48" t="s">
+      <c r="Q26" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+    <row r="27" spans="1:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="41"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="49"/>
+    </row>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="41"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="43"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="51"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="43"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="51"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="60" t="s">
+      <c r="B28" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="43"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="43"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="51"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="43"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="51"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="43"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="51"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="43"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="51"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="43"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="51"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="51"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="45"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="54"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="41"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="49"/>
+    </row>
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="41"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
+    </row>
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="41"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="49"/>
+    </row>
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="41"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+    </row>
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="41"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="41"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="49"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="41"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="49"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="43"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="52"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="52"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A6:N16 R6:R16" name="Contact Fields"/>
-    <protectedRange sqref="A19:R29" name="Questionnaire"/>
-    <protectedRange sqref="O6:Q16" name="Contact Fields_1"/>
+    <protectedRange sqref="A6:F24 R6:R24 J6:N24" name="Contact Fields"/>
+    <protectedRange sqref="A27:R35" name="Questionnaire"/>
+    <protectedRange sqref="O6:Q24" name="Contact Fields_1"/>
+    <protectedRange sqref="G6:I24" name="Contact Fields_2"/>
   </protectedRanges>
-  <mergeCells count="14">
+  <mergeCells count="12">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
-  <conditionalFormatting sqref="A16:J17 B7:J15 S7:Y7 S11:Y17">
-    <cfRule type="expression" dxfId="21" priority="39">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A25:J25 B15:F23 S15:Y15 S19:Y25 A24:F24 J15:J24">
+    <cfRule type="expression" dxfId="19" priority="41">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="40">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="42">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:I29">
-    <cfRule type="expression" dxfId="19" priority="29">
-      <formula>$C19="x"</formula>
+  <conditionalFormatting sqref="G27:I35 O27:Q35 K27:M35">
+    <cfRule type="expression" dxfId="17" priority="31">
+      <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
-      <formula>$D19="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="32">
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A15">
-    <cfRule type="expression" dxfId="17" priority="27">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A15:A23">
+    <cfRule type="expression" dxfId="15" priority="29">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="30">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:R17 R7:R16">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="O25:R25 R15:R24">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:Q29">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>$C19="x"</formula>
+  <conditionalFormatting sqref="K15:N25">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>$D19="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:N17">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="O15:Q24">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:M29">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C19="x"</formula>
+  <conditionalFormatting sqref="S16:Y16">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C16="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D19="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D16="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:Q16">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="S17:Y17">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C17="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D17="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:Y8">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="S18:Y18">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C18="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D18="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9:Y9">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10:Y10">
+  <conditionalFormatting sqref="G15:I15 G21:I24 G16:H20">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C10="x"</formula>
+      <formula>$C15="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D10="x"</formula>
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D16" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I16 M6:M16 Q6:Q16 Q19:Q29 M20:M28 M19 M29 I19:I29" xr:uid="{21CCF7DC-7941-4D52-B28E-045CE68FA307}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M24 Q6:Q24 I6:I24 I27:I35 Q27:Q35 M27:M35" xr:uid="{21CCF7DC-7941-4D52-B28E-045CE68FA307}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
